--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
   <si>
     <t>颜色</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>第5章 前端</t>
+  </si>
+  <si>
+    <t>未拷贝</t>
   </si>
   <si>
     <t>第6章 django</t>
@@ -602,10 +605,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -617,13 +620,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -631,8 +627,84 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,48 +726,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,46 +755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,187 +790,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,25 +984,51 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1022,26 +1051,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,25 +1068,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,133 +1101,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,7 +2434,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
@@ -2583,113 +2586,119 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:3">
+    <row r="24" customHeight="1" spans="3:4">
       <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="3:3">
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:3">
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="4:4">
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="4:4">
       <c r="D34" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:4">
       <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="4:4">
       <c r="D36" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="4:4">
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="4:4">
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:3">
       <c r="C39" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:3">
       <c r="C40" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="1" t="s">
-        <v>191</v>
+      <c r="B42" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="1" t="s">
-        <v>192</v>
+      <c r="B43" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -616,28 +616,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,14 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -679,9 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,8 +664,84 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,53 +756,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,31 +790,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,25 +916,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,121 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,6 +994,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1008,28 +1023,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,33 +1073,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,133 +1101,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="195">
   <si>
     <t>颜色</t>
   </si>
@@ -531,67 +531,70 @@
     <t>第5章 前端</t>
   </si>
   <si>
+    <t>至少下这一个未拷贝</t>
+  </si>
+  <si>
+    <t>第6章 django</t>
+  </si>
+  <si>
+    <t>第7章 爬虫</t>
+  </si>
+  <si>
+    <t>第8章Tornado</t>
+  </si>
+  <si>
+    <t>第9章 shell和自动化运维</t>
+  </si>
+  <si>
+    <t>课件和资料</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>大数据、数据挖掘、机器学习</t>
+  </si>
+  <si>
+    <t>Spark、Hadoop</t>
+  </si>
+  <si>
+    <t>《Spark 1.X 大数据平台V2》视频教程</t>
+  </si>
+  <si>
+    <t>炼数成金——spark大数据平台视频教程</t>
+  </si>
+  <si>
+    <t>小象学院——Hadoop—Spark企业应用实战视频教程(推荐版)</t>
+  </si>
+  <si>
+    <t>Hadoop视频</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>机器学习-吴恩达-Coursera</t>
+  </si>
+  <si>
+    <t>炼数成金-机器学习</t>
+  </si>
+  <si>
+    <t>龙星计划_机器学习</t>
+  </si>
+  <si>
+    <t>斯坦福大学公开课 ：机器学习课程</t>
+  </si>
+  <si>
+    <t>尚硅谷Redis视频</t>
+  </si>
+  <si>
+    <t>数据挖掘基础</t>
+  </si>
+  <si>
+    <t>推荐系统</t>
+  </si>
+  <si>
     <t>未拷贝</t>
-  </si>
-  <si>
-    <t>第6章 django</t>
-  </si>
-  <si>
-    <t>第7章 爬虫</t>
-  </si>
-  <si>
-    <t>第8章Tornado</t>
-  </si>
-  <si>
-    <t>第9章 shell和自动化运维</t>
-  </si>
-  <si>
-    <t>课件和资料</t>
-  </si>
-  <si>
-    <t>软件</t>
-  </si>
-  <si>
-    <t>大数据、数据挖掘、机器学习</t>
-  </si>
-  <si>
-    <t>Spark、Hadoop</t>
-  </si>
-  <si>
-    <t>《Spark 1.X 大数据平台V2》视频教程</t>
-  </si>
-  <si>
-    <t>炼数成金——spark大数据平台视频教程</t>
-  </si>
-  <si>
-    <t>小象学院——Hadoop—Spark企业应用实战视频教程(推荐版)</t>
-  </si>
-  <si>
-    <t>Hadoop视频</t>
-  </si>
-  <si>
-    <t>机器学习</t>
-  </si>
-  <si>
-    <t>机器学习-吴恩达-Coursera</t>
-  </si>
-  <si>
-    <t>炼数成金-机器学习</t>
-  </si>
-  <si>
-    <t>龙星计划_机器学习</t>
-  </si>
-  <si>
-    <t>斯坦福大学公开课 ：机器学习课程</t>
-  </si>
-  <si>
-    <t>尚硅谷Redis视频</t>
-  </si>
-  <si>
-    <t>数据挖掘基础</t>
-  </si>
-  <si>
-    <t>推荐系统</t>
   </si>
   <si>
     <t>公开课</t>
@@ -605,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -620,15 +623,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +652,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -649,15 +675,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,70 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,9 +743,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,31 +793,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,61 +901,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,85 +961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,15 +984,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,26 +1002,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,7 +1030,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,11 +1078,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1092,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,137 +1104,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1245,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1590,7 +1599,7 @@
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="69.125" style="6" customWidth="1"/>
     <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
@@ -1601,7 +1610,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1616,7 +1625,7 @@
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="6:6">
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1627,32 +1636,32 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="3:7">
-      <c r="C6" s="5"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="3:6">
-      <c r="C7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1660,8 +1669,8 @@
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:8">
-      <c r="C8" s="5"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1672,8 +1681,8 @@
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="3:8">
-      <c r="C9" s="5"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1684,11 +1693,11 @@
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:8">
-      <c r="C10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1696,689 +1705,689 @@
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="3:5">
-      <c r="C11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="3:5">
-      <c r="C12" s="5"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="3:5">
-      <c r="C13" s="5"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="3:5">
-      <c r="C14" s="5"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="7"/>
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:5">
-      <c r="C15" s="5"/>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="7"/>
+      <c r="E15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
-      <c r="C16" s="5"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
-      <c r="C17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
-      <c r="C18" s="5"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
-      <c r="C19" s="5"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="E19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
-      <c r="C20" s="5"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
-      <c r="C21" s="5"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="7"/>
+      <c r="E21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
-      <c r="C22" s="5"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="7"/>
+      <c r="E22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
-      <c r="C23" s="5"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="7"/>
+      <c r="E23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
-      <c r="C24" s="5"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="7"/>
+      <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
-      <c r="C25" s="5"/>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
-      <c r="C26" s="5"/>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
-      <c r="C27" s="5"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
-      <c r="C28" s="5"/>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
-      <c r="C29" s="5"/>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="7"/>
+      <c r="E29" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
-      <c r="C30" s="5"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
-      <c r="C31" s="5"/>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="7"/>
+      <c r="E31" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
-      <c r="C32" s="5"/>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="7"/>
+      <c r="E32" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
-      <c r="C33" s="5"/>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="7"/>
+      <c r="E33" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
-      <c r="C34" s="5"/>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="7"/>
+      <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
-      <c r="C35" s="5"/>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="7"/>
+      <c r="E35" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
-      <c r="C36" s="5"/>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="7"/>
+      <c r="E36" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
-      <c r="C37" s="5"/>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="7"/>
+      <c r="E37" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
-      <c r="C38" s="5"/>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="7"/>
+      <c r="E38" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
-      <c r="C39" s="5"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
-      <c r="C40" s="5"/>
-      <c r="E40" s="4" t="s">
+      <c r="C40" s="7"/>
+      <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
-      <c r="C41" s="5"/>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="7"/>
+      <c r="E41" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
-      <c r="C42" s="5"/>
-      <c r="E42" s="4" t="s">
+      <c r="C42" s="7"/>
+      <c r="E42" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
-      <c r="C43" s="5"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
-      <c r="C44" s="5"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="7"/>
+      <c r="E44" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
-      <c r="C45" s="5"/>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="7"/>
+      <c r="E45" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
-      <c r="C46" s="5"/>
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="7"/>
+      <c r="E46" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
-      <c r="C47" s="5"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
-      <c r="C48" s="5"/>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="7"/>
+      <c r="E48" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
-      <c r="C49" s="5"/>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="7"/>
+      <c r="E49" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
-      <c r="C50" s="5"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
-      <c r="C51" s="5"/>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="7"/>
+      <c r="E51" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
-      <c r="C52" s="5"/>
-      <c r="E52" s="4" t="s">
+      <c r="C52" s="7"/>
+      <c r="E52" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
-      <c r="C53" s="5"/>
-      <c r="E53" s="4" t="s">
+      <c r="C53" s="7"/>
+      <c r="E53" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
-      <c r="C54" s="5"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
-      <c r="C55" s="5"/>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="7"/>
+      <c r="E55" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
-      <c r="C56" s="5"/>
-      <c r="E56" s="4" t="s">
+      <c r="C56" s="7"/>
+      <c r="E56" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
-      <c r="C57" s="5"/>
-      <c r="E57" s="4" t="s">
+      <c r="C57" s="7"/>
+      <c r="E57" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
-      <c r="C58" s="5"/>
-      <c r="E58" s="4" t="s">
+      <c r="C58" s="7"/>
+      <c r="E58" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
-      <c r="C59" s="5"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
-      <c r="C60" s="5"/>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="7"/>
+      <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
-      <c r="C61" s="5"/>
-      <c r="E61" s="4" t="s">
+      <c r="C61" s="7"/>
+      <c r="E61" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
-      <c r="C62" s="5"/>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="7"/>
+      <c r="E62" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
-      <c r="C63" s="5"/>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="7"/>
+      <c r="E63" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
-      <c r="C64" s="5"/>
-      <c r="E64" s="4" t="s">
+      <c r="C64" s="7"/>
+      <c r="E64" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
-      <c r="C65" s="5"/>
-      <c r="E65" s="4" t="s">
+      <c r="C65" s="7"/>
+      <c r="E65" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
-      <c r="C66" s="5"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
-      <c r="C67" s="5"/>
-      <c r="E67" s="4" t="s">
+      <c r="C67" s="7"/>
+      <c r="E67" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
-      <c r="C68" s="5"/>
-      <c r="E68" s="4" t="s">
+      <c r="C68" s="7"/>
+      <c r="E68" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
-      <c r="C69" s="5"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
-      <c r="C70" s="5"/>
-      <c r="E70" s="4" t="s">
+      <c r="C70" s="7"/>
+      <c r="E70" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
-      <c r="C71" s="5"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
-      <c r="C72" s="5"/>
-      <c r="E72" s="4" t="s">
+      <c r="C72" s="7"/>
+      <c r="E72" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
-      <c r="C73" s="5"/>
-      <c r="E73" s="4" t="s">
+      <c r="C73" s="7"/>
+      <c r="E73" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
-      <c r="C74" s="5"/>
-      <c r="E74" s="4" t="s">
+      <c r="C74" s="7"/>
+      <c r="E74" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
-      <c r="C75" s="5"/>
-      <c r="E75" s="4" t="s">
+      <c r="C75" s="7"/>
+      <c r="E75" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
-      <c r="C76" s="5"/>
-      <c r="E76" s="4" t="s">
+      <c r="C76" s="7"/>
+      <c r="E76" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
-      <c r="C77" s="5"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
-      <c r="C78" s="5"/>
-      <c r="E78" s="4" t="s">
+      <c r="C78" s="7"/>
+      <c r="E78" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
-      <c r="C79" s="5"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
-      <c r="C80" s="5"/>
-      <c r="E80" s="4" t="s">
+      <c r="C80" s="7"/>
+      <c r="E80" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
-      <c r="C81" s="5"/>
-      <c r="E81" s="4" t="s">
+      <c r="C81" s="7"/>
+      <c r="E81" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
-      <c r="C82" s="5"/>
-      <c r="E82" s="4" t="s">
+      <c r="C82" s="7"/>
+      <c r="E82" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
-      <c r="C83" s="5"/>
-      <c r="E83" s="4" t="s">
+      <c r="C83" s="7"/>
+      <c r="E83" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
-      <c r="C84" s="5"/>
-      <c r="E84" s="4" t="s">
+      <c r="C84" s="7"/>
+      <c r="E84" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
-      <c r="C85" s="5"/>
-      <c r="E85" s="4" t="s">
+      <c r="C85" s="7"/>
+      <c r="E85" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
-      <c r="C86" s="5"/>
-      <c r="E86" s="4" t="s">
+      <c r="C86" s="7"/>
+      <c r="E86" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
-      <c r="C87" s="5"/>
-      <c r="E87" s="4" t="s">
+      <c r="C87" s="7"/>
+      <c r="E87" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
-      <c r="C88" s="5"/>
-      <c r="E88" s="4" t="s">
+      <c r="C88" s="7"/>
+      <c r="E88" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
-      <c r="C89" s="5"/>
-      <c r="E89" s="4" t="s">
+      <c r="C89" s="7"/>
+      <c r="E89" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
-      <c r="C90" s="5"/>
-      <c r="E90" s="4" t="s">
+      <c r="C90" s="7"/>
+      <c r="E90" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
-      <c r="C91" s="5"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
-      <c r="C92" s="5"/>
-      <c r="E92" s="4" t="s">
+      <c r="C92" s="7"/>
+      <c r="E92" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
-      <c r="C93" s="5"/>
-      <c r="E93" s="4" t="s">
+      <c r="C93" s="7"/>
+      <c r="E93" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
-      <c r="C94" s="5"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
-      <c r="C95" s="5"/>
-      <c r="E95" s="4" t="s">
+      <c r="C95" s="7"/>
+      <c r="E95" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
-      <c r="C96" s="5"/>
-      <c r="E96" s="4" t="s">
+      <c r="C96" s="7"/>
+      <c r="E96" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
-      <c r="C97" s="5"/>
-      <c r="E97" s="4" t="s">
+      <c r="C97" s="7"/>
+      <c r="E97" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
-      <c r="C98" s="5"/>
-      <c r="E98" s="4" t="s">
+      <c r="C98" s="7"/>
+      <c r="E98" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
-      <c r="C99" s="5"/>
-      <c r="E99" s="4" t="s">
+      <c r="C99" s="7"/>
+      <c r="E99" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
-      <c r="C100" s="5"/>
-      <c r="E100" s="4" t="s">
+      <c r="C100" s="7"/>
+      <c r="E100" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
-      <c r="C101" s="5"/>
-      <c r="E101" s="4" t="s">
+      <c r="C101" s="7"/>
+      <c r="E101" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
-      <c r="C102" s="5"/>
-      <c r="E102" s="4" t="s">
+      <c r="C102" s="7"/>
+      <c r="E102" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
-      <c r="C103" s="5"/>
-      <c r="E103" s="4" t="s">
+      <c r="C103" s="7"/>
+      <c r="E103" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
-      <c r="C104" s="5"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
-      <c r="C105" s="5"/>
-      <c r="E105" s="4" t="s">
+      <c r="C105" s="7"/>
+      <c r="E105" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
-      <c r="C106" s="5"/>
-      <c r="E106" s="4" t="s">
+      <c r="C106" s="7"/>
+      <c r="E106" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
-      <c r="C107" s="5"/>
-      <c r="E107" s="4" t="s">
+      <c r="C107" s="7"/>
+      <c r="E107" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
-      <c r="C108" s="5"/>
-      <c r="E108" s="4" t="s">
+      <c r="C108" s="7"/>
+      <c r="E108" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
-      <c r="C109" s="5"/>
-      <c r="E109" s="4" t="s">
+      <c r="C109" s="7"/>
+      <c r="E109" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
-      <c r="C110" s="5"/>
-      <c r="E110" s="4" t="s">
+      <c r="C110" s="7"/>
+      <c r="E110" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
-      <c r="C111" s="5"/>
-      <c r="E111" s="4" t="s">
+      <c r="C111" s="7"/>
+      <c r="E111" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
-      <c r="C112" s="5"/>
-      <c r="E112" s="4" t="s">
+      <c r="C112" s="7"/>
+      <c r="E112" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
-      <c r="C113" s="5"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
-      <c r="C114" s="5"/>
-      <c r="E114" s="4" t="s">
+      <c r="C114" s="7"/>
+      <c r="E114" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
-      <c r="C115" s="5"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2433,8 +2442,8 @@
   <sheetPr/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
@@ -2464,242 +2473,347 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="2" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="2" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="2" t="s">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
-      <c r="C24" s="1" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="2" t="s">
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="2" t="s">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="2" t="s">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="2" t="s">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="1" t="s">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="4:4">
-      <c r="D32" s="2" t="s">
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="4:4">
-      <c r="D33" s="2" t="s">
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="4:4">
-      <c r="D34" s="2" t="s">
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:4">
-      <c r="C35" s="1" t="s">
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="4:4">
-      <c r="D36" s="2" t="s">
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="4:4">
-      <c r="D37" s="2" t="s">
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="4:4">
-      <c r="D38" s="2" t="s">
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="2" t="s">
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="2" t="s">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
-      <c r="C41" s="1" t="s">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="2" t="s">
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>193</v>
       </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
   <si>
     <t>颜色</t>
   </si>
@@ -81,13 +81,19 @@
     <t>01-C基础第06天（数组）</t>
   </si>
   <si>
-    <t>--&gt;09,排序算法自己敲并且思考</t>
+    <t>排序算法自己敲并且思考</t>
   </si>
   <si>
     <t>2020.01.10</t>
   </si>
   <si>
     <t>01-C基础第07天（字符串处理函数和函数）</t>
+  </si>
+  <si>
+    <t>--&gt;函数</t>
+  </si>
+  <si>
+    <t>2020.01.16</t>
   </si>
   <si>
     <t>01-C基础第08天（指针上）</t>
@@ -608,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -623,12 +629,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -639,6 +690,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,16 +726,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,46 +741,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,21 +764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -766,7 +772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,187 +799,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,6 +996,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -998,6 +1028,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,41 +1082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1075,15 +1096,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1092,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,133 +1116,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,9 +1262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1263,6 +1272,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1589,8 +1601,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1599,7 +1611,7 @@
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="69.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
@@ -1610,7 +1622,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1625,7 +1637,7 @@
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="6:6">
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1636,32 +1648,32 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="3:7">
-      <c r="C6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="3:6">
-      <c r="C7" s="7"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="6"/>
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1669,8 +1681,8 @@
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:8">
-      <c r="C8" s="7"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1681,8 +1693,8 @@
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="3:8">
-      <c r="C9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1693,717 +1705,723 @@
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:8">
-      <c r="C10" s="7"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1" spans="3:5">
-      <c r="C11" s="7"/>
-      <c r="E11" s="6" t="s">
+    <row r="11" ht="21" customHeight="1" spans="3:8">
+      <c r="C11" s="6"/>
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="3:5">
-      <c r="C12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
+      <c r="C12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="3:5">
-      <c r="C13" s="7"/>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
+      <c r="C13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="3:5">
-      <c r="C14" s="7"/>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
+      <c r="C14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:5">
-      <c r="C15" s="7"/>
-      <c r="E15" s="6" t="s">
-        <v>27</v>
+      <c r="C15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
-      <c r="C16" s="7"/>
-      <c r="E16" s="6" t="s">
-        <v>28</v>
+      <c r="C16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
-      <c r="C17" s="7"/>
-      <c r="E17" s="6" t="s">
-        <v>29</v>
+      <c r="C17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
-      <c r="C18" s="7"/>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
+      <c r="C18" s="6"/>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
-      <c r="C19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>31</v>
+      <c r="C19" s="6"/>
+      <c r="E19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
-      <c r="C21" s="7"/>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
+      <c r="C21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
-      <c r="C22" s="7"/>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
+      <c r="C22" s="6"/>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
-      <c r="C23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>36</v>
+      <c r="C23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
-      <c r="C24" s="7"/>
-      <c r="E24" s="6" t="s">
-        <v>37</v>
+      <c r="C24" s="6"/>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
-      <c r="C25" s="7"/>
-      <c r="E25" s="6" t="s">
-        <v>38</v>
+      <c r="C25" s="6"/>
+      <c r="E25" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
-      <c r="C26" s="7"/>
-      <c r="E26" s="6" t="s">
-        <v>39</v>
+      <c r="C26" s="6"/>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
-      <c r="C28" s="7"/>
-      <c r="E28" s="6" t="s">
-        <v>42</v>
+      <c r="C28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
-      <c r="C29" s="7"/>
-      <c r="E29" s="6" t="s">
-        <v>43</v>
+      <c r="C29" s="6"/>
+      <c r="E29" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
-      <c r="C31" s="7"/>
-      <c r="E31" s="6" t="s">
-        <v>46</v>
+      <c r="C31" s="6"/>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
-      <c r="C32" s="7"/>
-      <c r="E32" s="6" t="s">
-        <v>47</v>
+      <c r="C32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
-      <c r="C33" s="7"/>
-      <c r="E33" s="6" t="s">
-        <v>48</v>
+      <c r="C33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
-      <c r="C34" s="7"/>
-      <c r="E34" s="6" t="s">
-        <v>49</v>
+      <c r="C34" s="6"/>
+      <c r="E34" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
-      <c r="C35" s="7"/>
-      <c r="E35" s="6" t="s">
-        <v>50</v>
+      <c r="C35" s="6"/>
+      <c r="E35" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
-      <c r="C36" s="7"/>
-      <c r="E36" s="6" t="s">
-        <v>51</v>
+      <c r="C36" s="6"/>
+      <c r="E36" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
-      <c r="C37" s="7"/>
-      <c r="E37" s="6" t="s">
-        <v>52</v>
+      <c r="C37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
-      <c r="C38" s="7"/>
-      <c r="E38" s="6" t="s">
-        <v>53</v>
+      <c r="C38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
-      <c r="C40" s="7"/>
-      <c r="E40" s="6" t="s">
-        <v>56</v>
+      <c r="C40" s="6"/>
+      <c r="E40" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
-      <c r="C41" s="7"/>
-      <c r="E41" s="6" t="s">
-        <v>57</v>
+      <c r="C41" s="6"/>
+      <c r="E41" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
-      <c r="C42" s="7"/>
-      <c r="E42" s="6" t="s">
-        <v>58</v>
+      <c r="C42" s="6"/>
+      <c r="E42" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
-      <c r="C44" s="7"/>
-      <c r="E44" s="6" t="s">
-        <v>61</v>
+      <c r="C44" s="6"/>
+      <c r="E44" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
-      <c r="C45" s="7"/>
-      <c r="E45" s="6" t="s">
-        <v>62</v>
+      <c r="C45" s="6"/>
+      <c r="E45" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
-      <c r="C46" s="7"/>
-      <c r="E46" s="6" t="s">
-        <v>63</v>
+      <c r="C46" s="6"/>
+      <c r="E46" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
-      <c r="C48" s="7"/>
-      <c r="E48" s="6" t="s">
-        <v>66</v>
+      <c r="C48" s="6"/>
+      <c r="E48" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
-      <c r="C49" s="7"/>
-      <c r="E49" s="6" t="s">
-        <v>67</v>
+      <c r="C49" s="6"/>
+      <c r="E49" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
-      <c r="C51" s="7"/>
-      <c r="E51" s="6" t="s">
-        <v>70</v>
+      <c r="C51" s="6"/>
+      <c r="E51" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
-      <c r="C52" s="7"/>
-      <c r="E52" s="6" t="s">
-        <v>71</v>
+      <c r="C52" s="6"/>
+      <c r="E52" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
-      <c r="C53" s="7"/>
-      <c r="E53" s="6" t="s">
-        <v>72</v>
+      <c r="C53" s="6"/>
+      <c r="E53" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
-      <c r="C54" s="7"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
-      <c r="C55" s="7"/>
-      <c r="E55" s="6" t="s">
-        <v>75</v>
+      <c r="C55" s="6"/>
+      <c r="E55" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
-      <c r="C56" s="7"/>
-      <c r="E56" s="6" t="s">
-        <v>76</v>
+      <c r="C56" s="6"/>
+      <c r="E56" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
-      <c r="C57" s="7"/>
-      <c r="E57" s="6" t="s">
-        <v>77</v>
+      <c r="C57" s="6"/>
+      <c r="E57" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
-      <c r="C58" s="7"/>
-      <c r="E58" s="6" t="s">
-        <v>78</v>
+      <c r="C58" s="6"/>
+      <c r="E58" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
-      <c r="C60" s="7"/>
-      <c r="E60" s="6" t="s">
-        <v>81</v>
+      <c r="C60" s="6"/>
+      <c r="E60" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
-      <c r="C61" s="7"/>
-      <c r="E61" s="6" t="s">
-        <v>82</v>
+      <c r="C61" s="6"/>
+      <c r="E61" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
-      <c r="C62" s="7"/>
-      <c r="E62" s="6" t="s">
-        <v>83</v>
+      <c r="C62" s="6"/>
+      <c r="E62" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
-      <c r="C63" s="7"/>
-      <c r="E63" s="6" t="s">
-        <v>84</v>
+      <c r="C63" s="6"/>
+      <c r="E63" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
-      <c r="C64" s="7"/>
-      <c r="E64" s="6" t="s">
-        <v>85</v>
+      <c r="C64" s="6"/>
+      <c r="E64" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
-      <c r="C65" s="7"/>
-      <c r="E65" s="6" t="s">
-        <v>86</v>
+      <c r="C65" s="6"/>
+      <c r="E65" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
-      <c r="C67" s="7"/>
-      <c r="E67" s="6" t="s">
-        <v>89</v>
+      <c r="C67" s="6"/>
+      <c r="E67" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
-      <c r="C68" s="7"/>
-      <c r="E68" s="6" t="s">
-        <v>90</v>
+      <c r="C68" s="6"/>
+      <c r="E68" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
-      <c r="C69" s="7"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
-      <c r="C70" s="7"/>
-      <c r="E70" s="6" t="s">
-        <v>93</v>
+      <c r="C70" s="6"/>
+      <c r="E70" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
-      <c r="C71" s="7"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
-      <c r="C72" s="7"/>
-      <c r="E72" s="6" t="s">
-        <v>93</v>
+      <c r="C72" s="6"/>
+      <c r="E72" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
-      <c r="C73" s="7"/>
-      <c r="E73" s="6" t="s">
-        <v>95</v>
+      <c r="C73" s="6"/>
+      <c r="E73" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
-      <c r="C74" s="7"/>
-      <c r="E74" s="6" t="s">
-        <v>96</v>
+      <c r="C74" s="6"/>
+      <c r="E74" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
-      <c r="C75" s="7"/>
-      <c r="E75" s="6" t="s">
-        <v>97</v>
+      <c r="C75" s="6"/>
+      <c r="E75" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
-      <c r="C76" s="7"/>
-      <c r="E76" s="6" t="s">
-        <v>98</v>
+      <c r="C76" s="6"/>
+      <c r="E76" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
-      <c r="C77" s="7"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
-      <c r="C78" s="7"/>
-      <c r="E78" s="6" t="s">
-        <v>98</v>
+      <c r="C78" s="6"/>
+      <c r="E78" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
-      <c r="C79" s="7"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
-      <c r="C80" s="7"/>
-      <c r="E80" s="6" t="s">
-        <v>102</v>
+      <c r="C80" s="6"/>
+      <c r="E80" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
-      <c r="C81" s="7"/>
-      <c r="E81" s="6" t="s">
-        <v>103</v>
+      <c r="C81" s="6"/>
+      <c r="E81" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
-      <c r="C82" s="7"/>
-      <c r="E82" s="6" t="s">
-        <v>104</v>
+      <c r="C82" s="6"/>
+      <c r="E82" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
-      <c r="C83" s="7"/>
-      <c r="E83" s="6" t="s">
-        <v>105</v>
+      <c r="C83" s="6"/>
+      <c r="E83" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
-      <c r="C84" s="7"/>
-      <c r="E84" s="6" t="s">
-        <v>106</v>
+      <c r="C84" s="6"/>
+      <c r="E84" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
-      <c r="C85" s="7"/>
-      <c r="E85" s="6" t="s">
-        <v>107</v>
+      <c r="C85" s="6"/>
+      <c r="E85" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
-      <c r="C86" s="7"/>
-      <c r="E86" s="6" t="s">
-        <v>108</v>
+      <c r="C86" s="6"/>
+      <c r="E86" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
-      <c r="C87" s="7"/>
-      <c r="E87" s="6" t="s">
-        <v>109</v>
+      <c r="C87" s="6"/>
+      <c r="E87" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
-      <c r="C88" s="7"/>
-      <c r="E88" s="6" t="s">
-        <v>110</v>
+      <c r="C88" s="6"/>
+      <c r="E88" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
-      <c r="C89" s="7"/>
-      <c r="E89" s="6" t="s">
-        <v>111</v>
+      <c r="C89" s="6"/>
+      <c r="E89" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
-      <c r="C90" s="7"/>
-      <c r="E90" s="6" t="s">
-        <v>112</v>
+      <c r="C90" s="6"/>
+      <c r="E90" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
-      <c r="C92" s="7"/>
-      <c r="E92" s="6" t="s">
-        <v>115</v>
+      <c r="C92" s="6"/>
+      <c r="E92" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
-      <c r="C93" s="7"/>
-      <c r="E93" s="6" t="s">
-        <v>116</v>
+      <c r="C93" s="6"/>
+      <c r="E93" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
-      <c r="C94" s="7"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
-      <c r="C95" s="7"/>
-      <c r="E95" s="6" t="s">
-        <v>119</v>
+      <c r="C95" s="6"/>
+      <c r="E95" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
-      <c r="C96" s="7"/>
-      <c r="E96" s="6" t="s">
-        <v>120</v>
+      <c r="C96" s="6"/>
+      <c r="E96" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
-      <c r="C97" s="7"/>
-      <c r="E97" s="6" t="s">
-        <v>121</v>
+      <c r="C97" s="6"/>
+      <c r="E97" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
-      <c r="C98" s="7"/>
-      <c r="E98" s="6" t="s">
-        <v>122</v>
+      <c r="C98" s="6"/>
+      <c r="E98" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
-      <c r="C99" s="7"/>
-      <c r="E99" s="6" t="s">
-        <v>123</v>
+      <c r="C99" s="6"/>
+      <c r="E99" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
-      <c r="C100" s="7"/>
-      <c r="E100" s="6" t="s">
-        <v>124</v>
+      <c r="C100" s="6"/>
+      <c r="E100" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
-      <c r="C101" s="7"/>
-      <c r="E101" s="6" t="s">
-        <v>125</v>
+      <c r="C101" s="6"/>
+      <c r="E101" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
-      <c r="C102" s="7"/>
-      <c r="E102" s="6" t="s">
-        <v>126</v>
+      <c r="C102" s="6"/>
+      <c r="E102" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
-      <c r="C103" s="7"/>
-      <c r="E103" s="6" t="s">
-        <v>127</v>
+      <c r="C103" s="6"/>
+      <c r="E103" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
-      <c r="C104" s="7"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
-      <c r="C105" s="7"/>
-      <c r="E105" s="6" t="s">
-        <v>130</v>
+      <c r="C105" s="6"/>
+      <c r="E105" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
-      <c r="C106" s="7"/>
-      <c r="E106" s="6" t="s">
-        <v>131</v>
+      <c r="C106" s="6"/>
+      <c r="E106" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
-      <c r="C107" s="7"/>
-      <c r="E107" s="6" t="s">
-        <v>132</v>
+      <c r="C107" s="6"/>
+      <c r="E107" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
-      <c r="C108" s="7"/>
-      <c r="E108" s="6" t="s">
-        <v>133</v>
+      <c r="C108" s="6"/>
+      <c r="E108" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
-      <c r="C109" s="7"/>
-      <c r="E109" s="6" t="s">
-        <v>134</v>
+      <c r="C109" s="6"/>
+      <c r="E109" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
-      <c r="C110" s="7"/>
-      <c r="E110" s="6" t="s">
-        <v>135</v>
+      <c r="C110" s="6"/>
+      <c r="E110" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
-      <c r="C111" s="7"/>
-      <c r="E111" s="6" t="s">
-        <v>136</v>
+      <c r="C111" s="6"/>
+      <c r="E111" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
-      <c r="C112" s="7"/>
-      <c r="E112" s="6" t="s">
-        <v>137</v>
+      <c r="C112" s="6"/>
+      <c r="E112" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
-      <c r="C113" s="7"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
-      <c r="C114" s="7"/>
-      <c r="E114" s="6" t="s">
-        <v>140</v>
+      <c r="C114" s="6"/>
+      <c r="E114" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
-      <c r="C115" s="7"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2460,7 @@
   <sheetPr/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2481,132 +2499,132 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>149</v>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>164</v>
+      <c r="B19" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2614,34 +2632,34 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>167</v>
+      <c r="C21" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>168</v>
+      <c r="C22" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>169</v>
+      <c r="C23" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2649,168 +2667,168 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>172</v>
+      <c r="C25" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>173</v>
+      <c r="C26" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>174</v>
+      <c r="C27" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>175</v>
+      <c r="C28" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>176</v>
+      <c r="C29" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>177</v>
+      <c r="C30" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>181</v>
+      <c r="D32" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
-        <v>182</v>
+      <c r="D33" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>183</v>
+      <c r="D34" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="5" t="s">
-        <v>186</v>
+      <c r="D36" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="5" t="s">
-        <v>187</v>
+      <c r="D37" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="5" t="s">
-        <v>188</v>
+      <c r="D38" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
-        <v>189</v>
+      <c r="C39" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>190</v>
+      <c r="C40" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
-        <v>191</v>
+      <c r="C41" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
-        <v>193</v>
+      <c r="B42" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
-        <v>194</v>
+      <c r="B43" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -614,9 +614,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -629,51 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,25 +651,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,8 +674,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,9 +697,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,6 +750,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -763,16 +771,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,7 +799,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,157 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,9 +995,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,32 +1008,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1082,6 +1052,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1104,10 +1098,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,137 +1110,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,9 +1266,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1718,10 +1709,10 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="3:8">
       <c r="C11" s="6"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1730,7 +1721,7 @@
     </row>
     <row r="12" ht="21" customHeight="1" spans="3:5">
       <c r="C12" s="6"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
     </row>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>颜色</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>01-C基础第09天（指针下）</t>
+  </si>
+  <si>
+    <t>1,2,3看过</t>
   </si>
   <si>
     <t>01-C基础第10天（内存结构）</t>
@@ -629,22 +632,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,9 +655,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,7 +671,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,6 +679,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,68 +774,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,187 +802,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,59 +1004,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,9 +1028,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,6 +1051,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1098,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,137 +1119,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1275,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1592,8 +1604,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1712,7 +1724,7 @@
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1725,694 +1737,697 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="3:5">
+    <row r="13" ht="21" customHeight="1" spans="3:6">
       <c r="C13" s="6"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="3:5">
       <c r="C14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:5">
       <c r="C15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
       <c r="C16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
       <c r="C17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2490,10 +2505,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2501,10 +2516,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2512,7 +2527,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2520,7 +2535,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2528,7 +2543,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2536,7 +2551,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2544,7 +2559,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2552,7 +2567,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2560,7 +2575,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2568,7 +2583,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2576,7 +2591,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2584,7 +2599,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2592,7 +2607,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2600,7 +2615,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2608,14 +2623,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2623,10 +2638,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2634,7 +2649,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2642,7 +2657,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2650,7 +2665,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2658,17 +2673,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2676,7 +2691,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2684,7 +2699,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2692,7 +2707,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2700,7 +2715,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2708,20 +2723,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2729,7 +2744,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2737,7 +2752,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2745,17 +2760,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2763,7 +2778,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2771,7 +2786,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2779,14 +2794,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2794,7 +2809,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2802,16 +2817,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2819,7 +2834,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -102,7 +102,7 @@
     <t>01-C基础第09天（指针下）</t>
   </si>
   <si>
-    <t>1,2,3看过</t>
+    <t>1,2,3,4看过</t>
   </si>
   <si>
     <t>01-C基础第10天（内存结构）</t>
@@ -617,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -639,39 +639,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,16 +668,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,8 +691,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,30 +736,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -774,6 +750,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -808,49 +808,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,133 +916,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,15 +999,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1037,6 +1028,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1055,32 +1079,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,133 +1119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t>颜色</t>
   </si>
@@ -102,10 +102,19 @@
     <t>01-C基础第09天（指针下）</t>
   </si>
   <si>
-    <t>1,2,3,4看过</t>
+    <t>10未看</t>
+  </si>
+  <si>
+    <t>2020.04.13</t>
   </si>
   <si>
     <t>01-C基础第10天（内存结构）</t>
+  </si>
+  <si>
+    <t>01已看</t>
+  </si>
+  <si>
+    <t>2020.04.13-</t>
   </si>
   <si>
     <t>01-C基础第11天（复合类型）</t>
@@ -617,15 +626,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,8 +661,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,9 +689,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +713,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,58 +766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -774,6 +781,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -808,187 +823,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,6 +1014,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1013,26 +1037,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,8 +1059,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,15 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1099,6 +1094,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1107,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,19 +1134,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,116 +1155,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1290,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1604,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1617,7 +1635,7 @@
     <col min="5" max="5" width="69.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1724,7 +1742,7 @@
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1737,7 +1755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="3:6">
+    <row r="13" ht="21" customHeight="1" spans="3:8">
       <c r="C13" s="6"/>
       <c r="E13" s="9" t="s">
         <v>27</v>
@@ -1745,689 +1763,698 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="3:5">
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="3:8">
       <c r="C14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:5">
       <c r="C15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
       <c r="C16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
       <c r="C17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2505,10 +2532,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2516,10 +2543,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2527,7 +2554,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2535,7 +2562,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2543,7 +2570,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2551,7 +2578,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2559,7 +2586,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2567,7 +2594,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2575,7 +2602,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2583,7 +2610,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2591,7 +2618,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2599,7 +2626,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2607,7 +2634,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2615,7 +2642,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2623,14 +2650,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2638,10 +2665,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2649,7 +2676,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2657,7 +2684,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2665,7 +2692,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2673,17 +2700,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2691,7 +2718,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2699,7 +2726,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2707,7 +2734,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2715,7 +2742,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2723,20 +2750,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2744,7 +2771,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2752,7 +2779,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2760,17 +2787,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2778,7 +2805,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2786,7 +2813,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2794,14 +2821,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2809,7 +2836,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2817,16 +2844,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2834,7 +2861,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -111,7 +111,7 @@
     <t>01-C基础第10天（内存结构）</t>
   </si>
   <si>
-    <t>01已看</t>
+    <t>07(含)之后未看</t>
   </si>
   <si>
     <t>2020.04.13-</t>
@@ -626,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -647,14 +647,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,21 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,100 +789,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -823,187 +823,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1014,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,6 +1056,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1052,30 +1087,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,19 +1109,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,145 +1122,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
   <si>
     <t>颜色</t>
   </si>
@@ -111,13 +111,16 @@
     <t>01-C基础第10天（内存结构）</t>
   </si>
   <si>
-    <t>07(含)之后未看</t>
-  </si>
-  <si>
-    <t>2020.04.13-</t>
+    <t>练习题思路未看</t>
+  </si>
+  <si>
+    <t>2020.04.13-4.18</t>
   </si>
   <si>
     <t>01-C基础第11天（复合类型）</t>
+  </si>
+  <si>
+    <t>4.18-</t>
   </si>
   <si>
     <t>01-C基础第12天（文件上）</t>
@@ -627,9 +630,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -646,8 +649,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +723,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -679,36 +779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,76 +792,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,7 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,19 +850,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,157 +940,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1011,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,21 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1075,45 +1111,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1122,10 +1119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,137 +1131,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,9 +1290,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1622,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1742,7 +1736,7 @@
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="3:8">
       <c r="C14" s="6"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1779,682 +1773,685 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="3:5">
+    <row r="15" ht="21" customHeight="1" spans="3:8">
       <c r="C15" s="6"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
       <c r="C16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
       <c r="C17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2532,10 +2529,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2543,10 +2540,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2554,7 +2551,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2562,7 +2559,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2570,7 +2567,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2578,7 +2575,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2586,7 +2583,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2594,7 +2591,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2602,7 +2599,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2610,7 +2607,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2618,7 +2615,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2626,7 +2623,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2634,7 +2631,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2642,7 +2639,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2650,14 +2647,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2665,10 +2662,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2676,7 +2673,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2684,7 +2681,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2692,7 +2689,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2700,17 +2697,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2718,7 +2715,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2726,7 +2723,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2734,7 +2731,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2742,7 +2739,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2750,20 +2747,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2771,7 +2768,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2779,7 +2776,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2787,17 +2784,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2805,7 +2802,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2813,7 +2810,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2821,14 +2818,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2836,7 +2833,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2844,16 +2841,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2861,7 +2858,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
   <si>
     <t>颜色</t>
   </si>
@@ -120,7 +120,10 @@
     <t>01-C基础第11天（复合类型）</t>
   </si>
   <si>
-    <t>4.18-</t>
+    <t>16(含)后未看</t>
+  </si>
+  <si>
+    <t>4.18-22</t>
   </si>
   <si>
     <t>01-C基础第12天（文件上）</t>
@@ -629,9 +632,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -649,16 +652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +661,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,6 +695,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -692,8 +703,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,8 +765,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,76 +789,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -820,19 +823,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,163 +997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1014,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1038,6 +1076,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1049,21 +1096,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,35 +1114,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,133 +1134,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,7 +1620,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1775,683 +1778,686 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:8">
       <c r="C15" s="6"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:5">
       <c r="C16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
       <c r="C17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2529,10 +2535,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2540,10 +2546,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2551,7 +2557,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2559,7 +2565,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2567,7 +2573,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2575,7 +2581,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2583,7 +2589,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2591,7 +2597,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2599,7 +2605,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2607,7 +2613,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2615,7 +2621,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2623,7 +2629,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2631,7 +2637,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2639,7 +2645,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2647,14 +2653,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2662,10 +2668,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2673,7 +2679,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2681,7 +2687,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2689,7 +2695,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2697,17 +2703,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2715,7 +2721,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2723,7 +2729,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2731,7 +2737,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2739,7 +2745,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2747,20 +2753,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2768,7 +2774,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2776,7 +2782,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2784,17 +2790,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2802,7 +2808,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2810,7 +2816,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2818,14 +2824,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2833,7 +2839,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2841,16 +2847,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2858,7 +2864,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="205">
   <si>
     <t>颜色</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>01-C基础第12天（文件上）</t>
+  </si>
+  <si>
+    <t>7(含)后未看</t>
+  </si>
+  <si>
+    <t>4.28-</t>
   </si>
   <si>
     <t>01-C基础第13天（文件下）</t>
@@ -632,10 +638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -653,31 +659,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,7 +681,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,11 +710,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,14 +755,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -781,6 +771,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -789,14 +786,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,49 +829,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,133 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,32 +1026,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1069,6 +1055,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1081,6 +1093,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,21 +1126,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1122,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,137 +1146,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,6 +1305,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1620,7 +1635,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1739,7 +1754,7 @@
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1788,676 +1803,682 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="3:5">
+    <row r="16" ht="21" customHeight="1" spans="3:8">
       <c r="C16" s="6"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:5">
       <c r="C17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2535,10 +2556,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2546,10 +2567,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2557,7 +2578,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2565,7 +2586,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2573,7 +2594,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2581,7 +2602,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2589,7 +2610,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2597,7 +2618,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2605,7 +2626,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2613,7 +2634,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2621,7 +2642,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2629,7 +2650,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2637,7 +2658,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2645,7 +2666,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2653,14 +2674,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2668,10 +2689,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2679,7 +2700,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2687,7 +2708,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2695,7 +2716,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2703,17 +2724,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2721,7 +2742,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2729,7 +2750,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2737,7 +2758,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2745,7 +2766,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2753,20 +2774,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2774,7 +2795,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2782,7 +2803,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2790,17 +2811,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2808,7 +2829,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2816,7 +2837,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2824,14 +2845,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2839,7 +2860,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2847,16 +2868,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2864,7 +2885,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="206">
   <si>
     <t>颜色</t>
   </si>
@@ -129,13 +129,16 @@
     <t>01-C基础第12天（文件上）</t>
   </si>
   <si>
-    <t>7(含)后未看</t>
+    <t>只看了文件的打开关闭,字符读写和行读写</t>
   </si>
   <si>
     <t>4.28-</t>
   </si>
   <si>
     <t>01-C基础第13天（文件下）</t>
+  </si>
+  <si>
+    <t>讲义内容已看完</t>
   </si>
   <si>
     <t>01-C基础第14天（IDE）</t>
@@ -638,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -659,28 +662,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -689,7 +670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,22 +691,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +704,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,17 +769,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,17 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,13 +838,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +964,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,157 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,11 +1032,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +1097,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1087,45 +1129,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1134,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1634,8 +1637,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1645,7 +1648,7 @@
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.625" style="1" customWidth="1"/>
@@ -1815,670 +1818,673 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="3:5">
+    <row r="17" ht="21" customHeight="1" spans="3:6">
       <c r="C17" s="6"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
       <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
       <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:5">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2556,10 +2562,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2567,10 +2573,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2578,7 +2584,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2586,7 +2592,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2594,7 +2600,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2602,7 +2608,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2610,7 +2616,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2618,7 +2624,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2626,7 +2632,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2634,7 +2640,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2642,7 +2648,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2650,7 +2656,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2658,7 +2664,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2666,7 +2672,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2674,14 +2680,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2689,10 +2695,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2700,7 +2706,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2708,7 +2714,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2716,7 +2722,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2724,17 +2730,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2742,7 +2748,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2750,7 +2756,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2758,7 +2764,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2766,7 +2772,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2774,20 +2780,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2795,7 +2801,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2803,7 +2809,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2811,17 +2817,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2829,7 +2835,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2837,7 +2843,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2845,14 +2851,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2860,7 +2866,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2868,16 +2874,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2885,7 +2891,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -641,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -670,48 +670,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,9 +690,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,9 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,13 +729,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -791,7 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,6 +756,54 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -838,187 +838,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,17 +1032,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,21 +1046,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,26 +1061,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,8 +1083,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,7 +1637,7 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="207">
   <si>
     <t>颜色</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>02-c提高01day</t>
+  </si>
+  <si>
+    <t>08内存分区概念往后</t>
   </si>
   <si>
     <t>02-c提高02day</t>
@@ -641,10 +644,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -670,9 +673,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,8 +732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,8 +748,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,6 +773,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -743,7 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,54 +807,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -838,24 +841,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -868,6 +889,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -880,145 +1003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,11 +1035,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1055,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,6 +1085,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,49 +1127,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,133 +1152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,7 +1641,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1839,652 +1842,655 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1" spans="3:5">
+    <row r="20" ht="21" customHeight="1" spans="3:6">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:5">
       <c r="C21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2562,10 +2568,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2573,10 +2579,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2584,7 +2590,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2592,7 +2598,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2600,7 +2606,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2608,7 +2614,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2616,7 +2622,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2624,7 +2630,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2632,7 +2638,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2640,7 +2646,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2648,7 +2654,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2656,7 +2662,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2664,7 +2670,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2672,7 +2678,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2680,14 +2686,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2695,10 +2701,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2706,7 +2712,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2714,7 +2720,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2722,7 +2728,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2730,17 +2736,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2748,7 +2754,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2756,7 +2762,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2764,7 +2770,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2772,7 +2778,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2780,20 +2786,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2801,7 +2807,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2809,7 +2815,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2817,17 +2823,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2835,7 +2841,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2843,7 +2849,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2851,14 +2857,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2866,7 +2872,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2874,16 +2880,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2891,7 +2897,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -153,7 +153,7 @@
     <t>02-c提高01day</t>
   </si>
   <si>
-    <t>08内存分区概念往后</t>
+    <t>2020.08.12</t>
   </si>
   <si>
     <t>02-c提高02day</t>
@@ -661,6 +661,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,8 +732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,22 +795,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,187 +841,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,6 +1055,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,21 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1140,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1640,8 +1640,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1842,15 +1842,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1" spans="3:6">
+    <row r="20" ht="21" customHeight="1" spans="3:8">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
   <si>
     <t>颜色</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>02-c提高02day</t>
+  </si>
+  <si>
+    <t>只剩下12未看</t>
+  </si>
+  <si>
+    <t>2020.08.13</t>
   </si>
   <si>
     <t>02-c提高03day</t>
@@ -661,13 +667,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,9 +731,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,14 +793,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,61 +847,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,115 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,21 +1061,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,6 +1115,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1140,10 +1146,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1158,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,7 +1647,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1850,648 +1856,653 @@
       <c r="E20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1" spans="3:5">
+    <row r="21" ht="21" customHeight="1" spans="3:8">
       <c r="C21" s="6"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:5">
       <c r="C22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:5">
       <c r="C23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2569,10 +2580,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2580,10 +2591,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2591,7 +2602,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2599,7 +2610,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2607,7 +2618,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2615,7 +2626,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2623,7 +2634,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2631,7 +2642,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2639,7 +2650,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2647,7 +2658,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2655,7 +2666,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2663,7 +2674,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2671,7 +2682,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2679,7 +2690,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2687,14 +2698,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2702,10 +2713,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2713,7 +2724,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2721,7 +2732,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2729,7 +2740,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2737,17 +2748,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2755,7 +2766,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2763,7 +2774,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2771,7 +2782,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2779,7 +2790,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2787,20 +2798,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2808,7 +2819,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2816,7 +2827,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2824,17 +2835,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2842,7 +2853,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2850,7 +2861,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2858,14 +2869,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2873,7 +2884,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2881,16 +2892,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2898,7 +2909,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="211">
   <si>
     <t>颜色</t>
   </si>
@@ -168,7 +168,13 @@
     <t>02-c提高03day</t>
   </si>
   <si>
+    <t>10没仔细看,</t>
+  </si>
+  <si>
     <t>02-c提高04day</t>
+  </si>
+  <si>
+    <t>3,4没有仔细看</t>
   </si>
   <si>
     <t>02-c提高05day</t>
@@ -650,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -671,7 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +685,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +701,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,70 +729,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,10 +750,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,6 +795,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -847,187 +853,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,60 +1044,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1110,7 +1062,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,8 +1085,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1152,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,133 +1164,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1647,7 +1653,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1872,637 +1878,643 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="21" customHeight="1" spans="3:5">
+    <row r="22" ht="21" customHeight="1" spans="3:6">
       <c r="C22" s="6"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="3:5">
+      <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="3:6">
       <c r="C23" s="6"/>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
+      <c r="E23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
       <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
       <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
       <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
       <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
       <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
       <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
       <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
       <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
       <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
       <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
       <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
       <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
       <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
       <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
       <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
       <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
       <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
       <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
       <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
       <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
       <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
       <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
       <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
       <c r="C50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
       <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
       <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
       <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
       <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
       <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
       <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
       <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
       <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
       <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
       <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
       <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
       <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
       <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
       <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
       <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
       <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
       <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
       <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
       <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
       <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
       <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
       <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
       <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
       <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
       <c r="C77" s="6"/>
       <c r="D77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
       <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
       <c r="C79" s="6"/>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
       <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
       <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
       <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
       <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
       <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
       <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
       <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
       <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
       <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
       <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
       <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
       <c r="C91" s="6"/>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
       <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
       <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
       <c r="C94" s="6"/>
       <c r="D94" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
       <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
       <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
       <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
       <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
       <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
       <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
       <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
       <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
       <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
       <c r="C104" s="6"/>
       <c r="D104" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
       <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
       <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
       <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
       <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
       <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
       <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
       <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
       <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
       <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
       <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
       <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2580,10 +2592,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2591,10 +2603,10 @@
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2602,7 +2614,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2610,7 +2622,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2618,7 +2630,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2626,7 +2638,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -2634,7 +2646,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2642,7 +2654,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2650,7 +2662,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -2658,7 +2670,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2666,7 +2678,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2674,7 +2686,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -2682,7 +2694,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2690,7 +2702,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2698,14 +2710,14 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2713,10 +2725,10 @@
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -2724,7 +2736,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2732,7 +2744,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -2740,7 +2752,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2748,17 +2760,17 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -2766,7 +2778,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2774,7 +2786,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -2782,7 +2794,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -2790,7 +2802,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2798,20 +2810,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2819,7 +2831,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2827,7 +2839,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2835,17 +2847,17 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2853,7 +2865,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -2861,7 +2873,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -2869,14 +2881,14 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -2884,7 +2896,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2892,16 +2904,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2909,7 +2921,7 @@
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9210"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <t>已经学习过</t>
   </si>
   <si>
-    <t>说明:重点内容在印象笔记中,而课程的原本笔记在summary中,目录还是按照一致的,其中需要重点观看的东西标题前边加上了符号--</t>
+    <t>说明:重点内容在印象笔记中,而课程的原本笔记在summary中,目录还是按照一致的</t>
   </si>
   <si>
     <t>C语言学习(E盘)</t>
@@ -657,14 +657,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -676,14 +683,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -696,28 +711,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,44 +730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,9 +751,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +783,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +811,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,12 +860,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -871,169 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,10 +1056,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1061,8 +1066,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,15 +1087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1102,15 +1098,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,6 +1117,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1144,6 +1140,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1152,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,137 +1171,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,13 +1326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1652,8 +1656,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1772,7 +1776,7 @@
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1787,7 +1791,7 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="3:8">
       <c r="C13" s="6"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1823,7 +1827,7 @@
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:8">
       <c r="C16" s="6"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1835,7 +1839,7 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:6">
       <c r="C17" s="6"/>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -656,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -683,19 +683,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,45 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,37 +721,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +768,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,187 +860,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,15 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1083,6 +1074,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,30 +1134,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1151,6 +1142,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1159,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,133 +1171,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -656,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -697,23 +697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,17 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +730,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,15 +760,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,30 +798,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,19 +872,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,151 +1010,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,15 +1051,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1074,15 +1065,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,17 +1084,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,13 +1119,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,145 +1159,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -654,14 +659,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,151 +682,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,7 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,194 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1053,255 +728,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,65 +765,33 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1648,19 +1049,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D64" workbookViewId="0">
       <selection activeCell="E23" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
@@ -1670,17 +1071,18 @@
     <col min="6" max="6" width="39.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1691,43 +1093,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="88" customHeight="1" spans="6:6">
+    <row r="4" spans="1:8" ht="87.95" customHeight="1">
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="32" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="39" customHeight="1" spans="3:7">
-      <c r="C6" s="6"/>
+    <row r="6" spans="1:8" ht="39" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="3:6">
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:8" ht="21" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1735,8 +1143,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="3:8">
-      <c r="C8" s="6"/>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1747,8 +1158,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1" spans="3:8">
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1759,8 +1173,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="21" customHeight="1" spans="3:8">
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1771,8 +1188,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1" spans="3:8">
-      <c r="C11" s="6"/>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1783,14 +1203,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1" spans="3:5">
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:8" ht="21" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="3:8">
-      <c r="C13" s="6"/>
+    <row r="13" spans="1:8" ht="21" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1801,8 +1227,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="21" customHeight="1" spans="3:8">
-      <c r="C14" s="6"/>
+    <row r="14" spans="1:8" ht="21" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1813,8 +1242,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="3:8">
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:8" ht="21" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1825,8 +1257,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="3:8">
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:8" ht="21" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
@@ -1837,8 +1272,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="3:6">
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:8" ht="21" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1846,21 +1284,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1" spans="3:5">
-      <c r="C18" s="6"/>
+    <row r="18" spans="1:8" ht="21" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" ht="21" customHeight="1" spans="3:5">
-      <c r="C19" s="6"/>
+    <row r="19" spans="1:8" ht="21" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1" spans="3:8">
-      <c r="C20" s="6"/>
-      <c r="D20" s="1" t="s">
+    <row r="20" spans="1:8" ht="21" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1870,8 +1316,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1" spans="3:8">
-      <c r="C21" s="6"/>
+    <row r="21" spans="1:8" ht="21" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="8" t="s">
         <v>46</v>
       </c>
@@ -1882,8 +1331,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="21" customHeight="1" spans="3:6">
-      <c r="C22" s="6"/>
+    <row r="22" spans="1:8" ht="21" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="8" t="s">
         <v>49</v>
       </c>
@@ -1891,8 +1343,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="3:6">
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:8" ht="21" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
@@ -1900,605 +1355,863 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="21" customHeight="1" spans="3:5">
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:8" ht="21" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1" spans="3:5">
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:8" ht="21" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="21" customHeight="1" spans="3:5">
-      <c r="C26" s="6"/>
+    <row r="26" spans="1:8" ht="21" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="21" customHeight="1" spans="3:5">
-      <c r="C27" s="6"/>
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="1:8" ht="21" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="21" customHeight="1" spans="3:5">
-      <c r="C28" s="6"/>
+    <row r="28" spans="1:8" ht="21" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="21" customHeight="1" spans="3:5">
-      <c r="C29" s="6"/>
+    <row r="29" spans="1:8" ht="21" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="21" customHeight="1" spans="3:5">
-      <c r="C30" s="6"/>
-      <c r="D30" s="1" t="s">
+    <row r="30" spans="1:8" ht="21" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="21" customHeight="1" spans="3:5">
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:8" ht="21" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="21" customHeight="1" spans="3:5">
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:8" ht="21" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="21" customHeight="1" spans="3:5">
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:5" ht="21" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" ht="21" customHeight="1" spans="3:5">
-      <c r="C34" s="6"/>
+    <row r="34" spans="1:5" ht="21" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="21" customHeight="1" spans="3:5">
-      <c r="C35" s="6"/>
+    <row r="35" spans="1:5" ht="21" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="21" customHeight="1" spans="3:5">
-      <c r="C36" s="6"/>
+    <row r="36" spans="1:5" ht="21" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" ht="21" customHeight="1" spans="3:5">
-      <c r="C37" s="6"/>
+    <row r="37" spans="1:5" ht="21" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="21" customHeight="1" spans="3:5">
-      <c r="C38" s="6"/>
+    <row r="38" spans="1:5" ht="21" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" ht="21" customHeight="1" spans="3:5">
-      <c r="C39" s="6"/>
-      <c r="D39" s="1" t="s">
+    <row r="39" spans="1:5" ht="21" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" ht="21" customHeight="1" spans="3:5">
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:5" ht="21" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" ht="21" customHeight="1" spans="3:5">
-      <c r="C41" s="6"/>
+    <row r="41" spans="1:5" ht="21" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" ht="21" customHeight="1" spans="3:5">
-      <c r="C42" s="6"/>
+    <row r="42" spans="1:5" ht="21" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" ht="21" customHeight="1" spans="3:5">
-      <c r="C43" s="6"/>
-      <c r="D43" s="1" t="s">
+    <row r="43" spans="1:5" ht="21" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" ht="21" customHeight="1" spans="3:5">
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:5" ht="21" customHeight="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" ht="21" customHeight="1" spans="3:5">
-      <c r="C45" s="6"/>
+    <row r="45" spans="1:5" ht="21" customHeight="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="21" customHeight="1" spans="3:5">
-      <c r="C46" s="6"/>
+    <row r="46" spans="1:5" ht="21" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="21" customHeight="1" spans="3:5">
-      <c r="C47" s="6"/>
-      <c r="D47" s="1" t="s">
+    <row r="47" spans="1:5" ht="21" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" ht="21" customHeight="1" spans="3:5">
-      <c r="C48" s="6"/>
+    <row r="48" spans="1:5" ht="21" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" ht="21" customHeight="1" spans="3:5">
-      <c r="C49" s="6"/>
+    <row r="49" spans="1:5" ht="21" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" ht="21" customHeight="1" spans="3:5">
-      <c r="C50" s="6"/>
-      <c r="D50" s="1" t="s">
+    <row r="50" spans="1:5" ht="21" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" ht="21" customHeight="1" spans="3:5">
-      <c r="C51" s="6"/>
+    <row r="51" spans="1:5" ht="21" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" ht="21" customHeight="1" spans="3:5">
-      <c r="C52" s="6"/>
+    <row r="52" spans="1:5" ht="21" customHeight="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" ht="21" customHeight="1" spans="3:5">
-      <c r="C53" s="6"/>
+    <row r="53" spans="1:5" ht="21" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" ht="21" customHeight="1" spans="3:5">
-      <c r="C54" s="6"/>
-      <c r="D54" s="1" t="s">
+    <row r="54" spans="1:5" ht="21" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" ht="21" customHeight="1" spans="3:5">
-      <c r="C55" s="6"/>
+    <row r="55" spans="1:5" ht="21" customHeight="1">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" ht="21" customHeight="1" spans="3:5">
-      <c r="C56" s="6"/>
+    <row r="56" spans="1:5" ht="21" customHeight="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" ht="21" customHeight="1" spans="3:5">
-      <c r="C57" s="6"/>
+    <row r="57" spans="1:5" ht="21" customHeight="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" ht="21" customHeight="1" spans="3:5">
-      <c r="C58" s="6"/>
+    <row r="58" spans="1:5" ht="21" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" ht="21" customHeight="1" spans="3:5">
-      <c r="C59" s="6"/>
-      <c r="D59" s="1" t="s">
+    <row r="59" spans="1:5" ht="21" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" ht="21" customHeight="1" spans="3:5">
-      <c r="C60" s="6"/>
+    <row r="60" spans="1:5" ht="21" customHeight="1">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" ht="21" customHeight="1" spans="3:5">
-      <c r="C61" s="6"/>
+    <row r="61" spans="1:5" ht="21" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" ht="21" customHeight="1" spans="3:5">
-      <c r="C62" s="6"/>
+    <row r="62" spans="1:5" ht="21" customHeight="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" ht="21" customHeight="1" spans="3:5">
-      <c r="C63" s="6"/>
+    <row r="63" spans="1:5" ht="21" customHeight="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" ht="21" customHeight="1" spans="3:5">
-      <c r="C64" s="6"/>
+    <row r="64" spans="1:5" ht="21" customHeight="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" ht="21" customHeight="1" spans="3:5">
-      <c r="C65" s="6"/>
+    <row r="65" spans="1:5" ht="21" customHeight="1">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" ht="21" customHeight="1" spans="3:5">
-      <c r="C66" s="6"/>
-      <c r="D66" s="1" t="s">
+    <row r="66" spans="1:5" ht="21" customHeight="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" ht="21" customHeight="1" spans="3:5">
-      <c r="C67" s="6"/>
+    <row r="67" spans="1:5" ht="21" customHeight="1">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" ht="21" customHeight="1" spans="3:5">
-      <c r="C68" s="6"/>
+    <row r="68" spans="1:5" ht="21" customHeight="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="21" customHeight="1" spans="3:5">
-      <c r="C69" s="6"/>
-      <c r="D69" s="1" t="s">
+    <row r="69" spans="1:5" ht="21" customHeight="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" ht="21" customHeight="1" spans="3:5">
-      <c r="C70" s="6"/>
+    <row r="70" spans="1:5" ht="21" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" ht="21" customHeight="1" spans="3:5">
-      <c r="C71" s="6"/>
-      <c r="D71" s="1" t="s">
+    <row r="71" spans="1:5" ht="21" customHeight="1">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" ht="21" customHeight="1" spans="3:5">
-      <c r="C72" s="6"/>
+    <row r="72" spans="1:5" ht="21" customHeight="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" ht="21" customHeight="1" spans="3:5">
-      <c r="C73" s="6"/>
+    <row r="73" spans="1:5" ht="21" customHeight="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" ht="21" customHeight="1" spans="3:5">
-      <c r="C74" s="6"/>
+    <row r="74" spans="1:5" ht="21" customHeight="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" ht="21" customHeight="1" spans="3:5">
-      <c r="C75" s="6"/>
+    <row r="75" spans="1:5" ht="21" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" ht="21" customHeight="1" spans="3:5">
-      <c r="C76" s="6"/>
+    <row r="76" spans="1:5" ht="21" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" ht="21" customHeight="1" spans="3:5">
-      <c r="C77" s="6"/>
-      <c r="D77" s="1" t="s">
+    <row r="77" spans="1:5" ht="21" customHeight="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="11" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" ht="21" customHeight="1" spans="3:5">
-      <c r="C78" s="6"/>
+    <row r="78" spans="1:5" ht="21" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" ht="21" customHeight="1" spans="3:5">
-      <c r="C79" s="6"/>
-      <c r="D79" s="1" t="s">
+    <row r="79" spans="1:5" ht="21" customHeight="1">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" ht="21" customHeight="1" spans="3:5">
-      <c r="C80" s="6"/>
+    <row r="80" spans="1:5" ht="21" customHeight="1">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" ht="21" customHeight="1" spans="3:5">
-      <c r="C81" s="6"/>
+    <row r="81" spans="1:5" ht="21" customHeight="1">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" ht="21" customHeight="1" spans="3:5">
-      <c r="C82" s="6"/>
+    <row r="82" spans="1:5" ht="21" customHeight="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" ht="21" customHeight="1" spans="3:5">
-      <c r="C83" s="6"/>
+    <row r="83" spans="1:5" ht="21" customHeight="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" ht="21" customHeight="1" spans="3:5">
-      <c r="C84" s="6"/>
+    <row r="84" spans="1:5" ht="21" customHeight="1">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" ht="21" customHeight="1" spans="3:5">
-      <c r="C85" s="6"/>
+    <row r="85" spans="1:5" ht="21" customHeight="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" ht="21" customHeight="1" spans="3:5">
-      <c r="C86" s="6"/>
+    <row r="86" spans="1:5" ht="21" customHeight="1">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" ht="21" customHeight="1" spans="3:5">
-      <c r="C87" s="6"/>
+    <row r="87" spans="1:5" ht="21" customHeight="1">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" ht="21" customHeight="1" spans="3:5">
-      <c r="C88" s="6"/>
+    <row r="88" spans="1:5" ht="21" customHeight="1">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" ht="21" customHeight="1" spans="3:5">
-      <c r="C89" s="6"/>
+    <row r="89" spans="1:5" ht="21" customHeight="1">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" ht="21" customHeight="1" spans="3:5">
-      <c r="C90" s="6"/>
+    <row r="90" spans="1:5" ht="21" customHeight="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" ht="21" customHeight="1" spans="3:5">
-      <c r="C91" s="6"/>
-      <c r="D91" s="1" t="s">
+    <row r="91" spans="1:5" ht="21" customHeight="1">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" ht="21" customHeight="1" spans="3:5">
-      <c r="C92" s="6"/>
+    <row r="92" spans="1:5" ht="21" customHeight="1">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" ht="21" customHeight="1" spans="3:5">
-      <c r="C93" s="6"/>
+    <row r="93" spans="1:5" ht="21" customHeight="1">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" ht="21" customHeight="1" spans="3:5">
-      <c r="C94" s="6"/>
-      <c r="D94" s="1" t="s">
+    <row r="94" spans="1:5" ht="21" customHeight="1">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="11" t="s">
         <v>133</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" ht="21" customHeight="1" spans="3:5">
-      <c r="C95" s="6"/>
+    <row r="95" spans="1:5" ht="21" customHeight="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" ht="21" customHeight="1" spans="3:5">
-      <c r="C96" s="6"/>
+    <row r="96" spans="1:5" ht="21" customHeight="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" ht="21" customHeight="1" spans="3:5">
-      <c r="C97" s="6"/>
+    <row r="97" spans="1:5" ht="21" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" ht="21" customHeight="1" spans="3:5">
-      <c r="C98" s="6"/>
+    <row r="98" spans="1:5" ht="21" customHeight="1">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" ht="21" customHeight="1" spans="3:5">
-      <c r="C99" s="6"/>
+    <row r="99" spans="1:5" ht="21" customHeight="1">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" ht="21" customHeight="1" spans="3:5">
-      <c r="C100" s="6"/>
+    <row r="100" spans="1:5" ht="21" customHeight="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" ht="21" customHeight="1" spans="3:5">
-      <c r="C101" s="6"/>
+    <row r="101" spans="1:5" ht="21" customHeight="1">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" ht="21" customHeight="1" spans="3:5">
-      <c r="C102" s="6"/>
+    <row r="102" spans="1:5" ht="21" customHeight="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" ht="21" customHeight="1" spans="3:5">
-      <c r="C103" s="6"/>
+    <row r="103" spans="1:5" ht="21" customHeight="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" ht="21" customHeight="1" spans="3:5">
-      <c r="C104" s="6"/>
-      <c r="D104" s="1" t="s">
+    <row r="104" spans="1:5" ht="21" customHeight="1">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" ht="21" customHeight="1" spans="3:5">
-      <c r="C105" s="6"/>
+    <row r="105" spans="1:5" ht="21" customHeight="1">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" ht="21" customHeight="1" spans="3:5">
-      <c r="C106" s="6"/>
+    <row r="106" spans="1:5" ht="21" customHeight="1">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" ht="21" customHeight="1" spans="3:5">
-      <c r="C107" s="6"/>
+    <row r="107" spans="1:5" ht="21" customHeight="1">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" ht="21" customHeight="1" spans="3:5">
-      <c r="C108" s="6"/>
+    <row r="108" spans="1:5" ht="21" customHeight="1">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" ht="21" customHeight="1" spans="3:5">
-      <c r="C109" s="6"/>
+    <row r="109" spans="1:5" ht="21" customHeight="1">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" ht="21" customHeight="1" spans="3:5">
-      <c r="C110" s="6"/>
+    <row r="110" spans="1:5" ht="21" customHeight="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111" ht="21" customHeight="1" spans="3:5">
-      <c r="C111" s="6"/>
+    <row r="111" spans="1:5" ht="21" customHeight="1">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" ht="21" customHeight="1" spans="3:5">
-      <c r="C112" s="6"/>
+    <row r="112" spans="1:5" ht="21" customHeight="1">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" ht="21" customHeight="1" spans="3:5">
-      <c r="C113" s="6"/>
-      <c r="D113" s="1" t="s">
+    <row r="113" spans="1:5" ht="21" customHeight="1">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" ht="21" customHeight="1" spans="3:5">
-      <c r="C114" s="6"/>
+    <row r="114" spans="1:5" ht="21" customHeight="1">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" ht="21" customHeight="1" spans="3:5">
-      <c r="C115" s="6"/>
+    <row r="115" spans="1:5" ht="21" customHeight="1">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
@@ -2506,23 +2219,34 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" ht="21" customHeight="1" spans="3:3">
+    <row r="116" spans="1:5" ht="21" customHeight="1">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117" ht="21" customHeight="1" spans="3:3">
+    <row r="117" spans="1:5" ht="21" customHeight="1">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="2:2">
+    <row r="118" spans="1:5" ht="18" customHeight="1">
       <c r="B118" s="1" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D90"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D104:D112"/>
     <mergeCell ref="A5:A117"/>
     <mergeCell ref="B5:B117"/>
     <mergeCell ref="C5:C115"/>
@@ -2539,45 +2263,38 @@
     <mergeCell ref="D66:D68"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D90"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D104:D112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2588,14 +2305,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2604,9 +2321,9 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2614,121 +2331,121 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2736,33 +2453,33 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="4" t="s">
         <v>186</v>
       </c>
@@ -2770,143 +2487,143 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:4" ht="18" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="14" t="s">
         <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+    <row r="32" spans="1:4" ht="18" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+    <row r="36" spans="1:4" ht="18" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+    <row r="39" spans="1:4" ht="18" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+    <row r="40" spans="1:4" ht="18" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+    <row r="41" spans="1:4" ht="18" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="4" t="s">
         <v>207</v>
       </c>
@@ -2914,16 +2631,16 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:4" ht="18" customHeight="1">
+      <c r="A42" s="14"/>
       <c r="B42" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:4" ht="18" customHeight="1">
+      <c r="A43" s="14"/>
       <c r="B43" s="4" t="s">
         <v>210</v>
       </c>
@@ -2939,7 +2656,7 @@
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C35:C38"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
   <si>
     <t>颜色</t>
   </si>
@@ -654,6 +654,26 @@
   </si>
   <si>
     <t>人工智能+Python基础班</t>
+  </si>
+  <si>
+    <t>Linux操作相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python基础语法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python强化练习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件未看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,11 +791,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,7 +1125,7 @@
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1114,19 +1134,19 @@
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1154,7 @@
     <row r="7" spans="1:8" ht="21" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8" t="s">
         <v>13</v>
@@ -1146,7 +1166,7 @@
     <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
@@ -1161,7 +1181,7 @@
     <row r="9" spans="1:8" ht="21" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -1176,7 +1196,7 @@
     <row r="10" spans="1:8" ht="21" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="8" t="s">
         <v>20</v>
@@ -1191,7 +1211,7 @@
     <row r="11" spans="1:8" ht="21" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -1206,7 +1226,7 @@
     <row r="12" spans="1:8" ht="21" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="11"/>
       <c r="E12" s="8" t="s">
         <v>26</v>
@@ -1215,7 +1235,7 @@
     <row r="13" spans="1:8" ht="21" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
         <v>27</v>
@@ -1230,7 +1250,7 @@
     <row r="14" spans="1:8" ht="21" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="11"/>
       <c r="E14" s="8" t="s">
         <v>30</v>
@@ -1245,7 +1265,7 @@
     <row r="15" spans="1:8" ht="21" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="11"/>
       <c r="E15" s="8" t="s">
         <v>33</v>
@@ -1260,7 +1280,7 @@
     <row r="16" spans="1:8" ht="21" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
         <v>36</v>
@@ -1275,7 +1295,7 @@
     <row r="17" spans="1:8" ht="21" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
         <v>39</v>
@@ -1287,7 +1307,7 @@
     <row r="18" spans="1:8" ht="21" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
@@ -1296,7 +1316,7 @@
     <row r="19" spans="1:8" ht="21" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
         <v>42</v>
@@ -1305,7 +1325,7 @@
     <row r="20" spans="1:8" ht="21" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
@@ -1319,7 +1339,7 @@
     <row r="21" spans="1:8" ht="21" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="11"/>
       <c r="E21" s="8" t="s">
         <v>46</v>
@@ -1334,7 +1354,7 @@
     <row r="22" spans="1:8" ht="21" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="11"/>
       <c r="E22" s="8" t="s">
         <v>49</v>
@@ -1346,7 +1366,7 @@
     <row r="23" spans="1:8" ht="21" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="11"/>
       <c r="E23" s="8" t="s">
         <v>51</v>
@@ -1358,7 +1378,7 @@
     <row r="24" spans="1:8" ht="21" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
         <v>53</v>
@@ -1367,7 +1387,7 @@
     <row r="25" spans="1:8" ht="21" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
         <v>54</v>
@@ -1376,7 +1396,7 @@
     <row r="26" spans="1:8" ht="21" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="11"/>
       <c r="E26" s="5" t="s">
         <v>55</v>
@@ -1385,7 +1405,7 @@
     <row r="27" spans="1:8" ht="21" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
@@ -1396,7 +1416,7 @@
     <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="5" t="s">
         <v>58</v>
@@ -1405,7 +1425,7 @@
     <row r="29" spans="1:8" ht="21" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
         <v>59</v>
@@ -1414,7 +1434,7 @@
     <row r="30" spans="1:8" ht="21" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="11" t="s">
         <v>60</v>
       </c>
@@ -1425,7 +1445,7 @@
     <row r="31" spans="1:8" ht="21" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5" t="s">
         <v>62</v>
@@ -1434,7 +1454,7 @@
     <row r="32" spans="1:8" ht="21" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="11"/>
       <c r="E32" s="5" t="s">
         <v>63</v>
@@ -1443,7 +1463,7 @@
     <row r="33" spans="1:5" ht="21" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="11"/>
       <c r="E33" s="5" t="s">
         <v>64</v>
@@ -1452,7 +1472,7 @@
     <row r="34" spans="1:5" ht="21" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="11"/>
       <c r="E34" s="5" t="s">
         <v>65</v>
@@ -1461,7 +1481,7 @@
     <row r="35" spans="1:5" ht="21" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="11"/>
       <c r="E35" s="5" t="s">
         <v>66</v>
@@ -1470,7 +1490,7 @@
     <row r="36" spans="1:5" ht="21" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="11"/>
       <c r="E36" s="5" t="s">
         <v>67</v>
@@ -1479,7 +1499,7 @@
     <row r="37" spans="1:5" ht="21" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="11"/>
       <c r="E37" s="5" t="s">
         <v>68</v>
@@ -1488,7 +1508,7 @@
     <row r="38" spans="1:5" ht="21" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="11"/>
       <c r="E38" s="5" t="s">
         <v>69</v>
@@ -1497,7 +1517,7 @@
     <row r="39" spans="1:5" ht="21" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="11" t="s">
         <v>70</v>
       </c>
@@ -1508,7 +1528,7 @@
     <row r="40" spans="1:5" ht="21" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="11"/>
       <c r="E40" s="5" t="s">
         <v>72</v>
@@ -1517,7 +1537,7 @@
     <row r="41" spans="1:5" ht="21" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="11"/>
       <c r="E41" s="5" t="s">
         <v>73</v>
@@ -1526,7 +1546,7 @@
     <row r="42" spans="1:5" ht="21" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="11"/>
       <c r="E42" s="5" t="s">
         <v>74</v>
@@ -1535,7 +1555,7 @@
     <row r="43" spans="1:5" ht="21" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="11" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1566,7 @@
     <row r="44" spans="1:5" ht="21" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="11"/>
       <c r="E44" s="5" t="s">
         <v>77</v>
@@ -1555,7 +1575,7 @@
     <row r="45" spans="1:5" ht="21" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="11"/>
       <c r="E45" s="5" t="s">
         <v>78</v>
@@ -1564,7 +1584,7 @@
     <row r="46" spans="1:5" ht="21" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="11"/>
       <c r="E46" s="5" t="s">
         <v>79</v>
@@ -1573,7 +1593,7 @@
     <row r="47" spans="1:5" ht="21" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="11" t="s">
         <v>80</v>
       </c>
@@ -1584,7 +1604,7 @@
     <row r="48" spans="1:5" ht="21" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="11"/>
       <c r="E48" s="5" t="s">
         <v>82</v>
@@ -1593,7 +1613,7 @@
     <row r="49" spans="1:5" ht="21" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="11"/>
       <c r="E49" s="5" t="s">
         <v>83</v>
@@ -1602,7 +1622,7 @@
     <row r="50" spans="1:5" ht="21" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="11" t="s">
         <v>84</v>
       </c>
@@ -1613,7 +1633,7 @@
     <row r="51" spans="1:5" ht="21" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="11"/>
       <c r="E51" s="5" t="s">
         <v>86</v>
@@ -1622,7 +1642,7 @@
     <row r="52" spans="1:5" ht="21" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="11"/>
       <c r="E52" s="5" t="s">
         <v>87</v>
@@ -1631,7 +1651,7 @@
     <row r="53" spans="1:5" ht="21" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="11"/>
       <c r="E53" s="5" t="s">
         <v>88</v>
@@ -1640,7 +1660,7 @@
     <row r="54" spans="1:5" ht="21" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="11" t="s">
         <v>89</v>
       </c>
@@ -1651,7 +1671,7 @@
     <row r="55" spans="1:5" ht="21" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="11"/>
       <c r="E55" s="5" t="s">
         <v>91</v>
@@ -1660,7 +1680,7 @@
     <row r="56" spans="1:5" ht="21" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="11"/>
       <c r="E56" s="5" t="s">
         <v>92</v>
@@ -1669,7 +1689,7 @@
     <row r="57" spans="1:5" ht="21" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="11"/>
       <c r="E57" s="5" t="s">
         <v>93</v>
@@ -1678,7 +1698,7 @@
     <row r="58" spans="1:5" ht="21" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="11"/>
       <c r="E58" s="5" t="s">
         <v>94</v>
@@ -1687,7 +1707,7 @@
     <row r="59" spans="1:5" ht="21" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="11" t="s">
         <v>95</v>
       </c>
@@ -1698,7 +1718,7 @@
     <row r="60" spans="1:5" ht="21" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="11"/>
       <c r="E60" s="5" t="s">
         <v>97</v>
@@ -1707,7 +1727,7 @@
     <row r="61" spans="1:5" ht="21" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="11"/>
       <c r="E61" s="5" t="s">
         <v>98</v>
@@ -1716,7 +1736,7 @@
     <row r="62" spans="1:5" ht="21" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="11"/>
       <c r="E62" s="5" t="s">
         <v>99</v>
@@ -1725,7 +1745,7 @@
     <row r="63" spans="1:5" ht="21" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="11"/>
       <c r="E63" s="5" t="s">
         <v>100</v>
@@ -1734,7 +1754,7 @@
     <row r="64" spans="1:5" ht="21" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="11"/>
       <c r="E64" s="5" t="s">
         <v>101</v>
@@ -1743,7 +1763,7 @@
     <row r="65" spans="1:5" ht="21" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="11"/>
       <c r="E65" s="5" t="s">
         <v>102</v>
@@ -1752,7 +1772,7 @@
     <row r="66" spans="1:5" ht="21" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="11" t="s">
         <v>103</v>
       </c>
@@ -1763,7 +1783,7 @@
     <row r="67" spans="1:5" ht="21" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="11"/>
       <c r="E67" s="5" t="s">
         <v>105</v>
@@ -1772,7 +1792,7 @@
     <row r="68" spans="1:5" ht="21" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="11"/>
       <c r="E68" s="5" t="s">
         <v>106</v>
@@ -1781,7 +1801,7 @@
     <row r="69" spans="1:5" ht="21" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="11" t="s">
         <v>107</v>
       </c>
@@ -1792,7 +1812,7 @@
     <row r="70" spans="1:5" ht="21" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="11"/>
       <c r="E70" s="5" t="s">
         <v>109</v>
@@ -1801,7 +1821,7 @@
     <row r="71" spans="1:5" ht="21" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="11" t="s">
         <v>110</v>
       </c>
@@ -1812,7 +1832,7 @@
     <row r="72" spans="1:5" ht="21" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="11"/>
       <c r="E72" s="5" t="s">
         <v>109</v>
@@ -1821,7 +1841,7 @@
     <row r="73" spans="1:5" ht="21" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="11"/>
       <c r="E73" s="5" t="s">
         <v>111</v>
@@ -1830,7 +1850,7 @@
     <row r="74" spans="1:5" ht="21" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="11"/>
       <c r="E74" s="5" t="s">
         <v>112</v>
@@ -1839,7 +1859,7 @@
     <row r="75" spans="1:5" ht="21" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="11"/>
       <c r="E75" s="5" t="s">
         <v>113</v>
@@ -1848,7 +1868,7 @@
     <row r="76" spans="1:5" ht="21" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="11"/>
       <c r="E76" s="5" t="s">
         <v>114</v>
@@ -1857,7 +1877,7 @@
     <row r="77" spans="1:5" ht="21" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="11" t="s">
         <v>115</v>
       </c>
@@ -1868,7 +1888,7 @@
     <row r="78" spans="1:5" ht="21" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="11"/>
       <c r="E78" s="5" t="s">
         <v>114</v>
@@ -1877,7 +1897,7 @@
     <row r="79" spans="1:5" ht="21" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="11" t="s">
         <v>116</v>
       </c>
@@ -1888,7 +1908,7 @@
     <row r="80" spans="1:5" ht="21" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="11"/>
       <c r="E80" s="5" t="s">
         <v>118</v>
@@ -1897,7 +1917,7 @@
     <row r="81" spans="1:5" ht="21" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="11"/>
       <c r="E81" s="5" t="s">
         <v>119</v>
@@ -1906,7 +1926,7 @@
     <row r="82" spans="1:5" ht="21" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="11"/>
       <c r="E82" s="5" t="s">
         <v>120</v>
@@ -1915,7 +1935,7 @@
     <row r="83" spans="1:5" ht="21" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="11"/>
       <c r="E83" s="5" t="s">
         <v>121</v>
@@ -1924,7 +1944,7 @@
     <row r="84" spans="1:5" ht="21" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="11"/>
       <c r="E84" s="5" t="s">
         <v>122</v>
@@ -1933,7 +1953,7 @@
     <row r="85" spans="1:5" ht="21" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="11"/>
       <c r="E85" s="5" t="s">
         <v>123</v>
@@ -1942,7 +1962,7 @@
     <row r="86" spans="1:5" ht="21" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="11"/>
       <c r="E86" s="5" t="s">
         <v>124</v>
@@ -1951,7 +1971,7 @@
     <row r="87" spans="1:5" ht="21" customHeight="1">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="11"/>
       <c r="E87" s="5" t="s">
         <v>125</v>
@@ -1960,7 +1980,7 @@
     <row r="88" spans="1:5" ht="21" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="11"/>
       <c r="E88" s="5" t="s">
         <v>126</v>
@@ -1969,7 +1989,7 @@
     <row r="89" spans="1:5" ht="21" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="11"/>
       <c r="E89" s="5" t="s">
         <v>127</v>
@@ -1978,7 +1998,7 @@
     <row r="90" spans="1:5" ht="21" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="11"/>
       <c r="E90" s="5" t="s">
         <v>128</v>
@@ -1987,7 +2007,7 @@
     <row r="91" spans="1:5" ht="21" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="11" t="s">
         <v>129</v>
       </c>
@@ -1998,7 +2018,7 @@
     <row r="92" spans="1:5" ht="21" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="11"/>
       <c r="E92" s="5" t="s">
         <v>131</v>
@@ -2007,7 +2027,7 @@
     <row r="93" spans="1:5" ht="21" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="11"/>
       <c r="E93" s="5" t="s">
         <v>132</v>
@@ -2016,7 +2036,7 @@
     <row r="94" spans="1:5" ht="21" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="11" t="s">
         <v>133</v>
       </c>
@@ -2027,7 +2047,7 @@
     <row r="95" spans="1:5" ht="21" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="11"/>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -2036,7 +2056,7 @@
     <row r="96" spans="1:5" ht="21" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="11"/>
       <c r="E96" s="5" t="s">
         <v>136</v>
@@ -2045,7 +2065,7 @@
     <row r="97" spans="1:5" ht="21" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="11"/>
       <c r="E97" s="5" t="s">
         <v>137</v>
@@ -2054,7 +2074,7 @@
     <row r="98" spans="1:5" ht="21" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="11"/>
       <c r="E98" s="5" t="s">
         <v>138</v>
@@ -2063,7 +2083,7 @@
     <row r="99" spans="1:5" ht="21" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="11"/>
       <c r="E99" s="5" t="s">
         <v>139</v>
@@ -2072,7 +2092,7 @@
     <row r="100" spans="1:5" ht="21" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="11"/>
       <c r="E100" s="5" t="s">
         <v>140</v>
@@ -2081,7 +2101,7 @@
     <row r="101" spans="1:5" ht="21" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="11"/>
       <c r="E101" s="5" t="s">
         <v>141</v>
@@ -2090,7 +2110,7 @@
     <row r="102" spans="1:5" ht="21" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="11"/>
       <c r="E102" s="5" t="s">
         <v>142</v>
@@ -2099,7 +2119,7 @@
     <row r="103" spans="1:5" ht="21" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="11"/>
       <c r="E103" s="5" t="s">
         <v>143</v>
@@ -2108,7 +2128,7 @@
     <row r="104" spans="1:5" ht="21" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="11" t="s">
         <v>144</v>
       </c>
@@ -2119,7 +2139,7 @@
     <row r="105" spans="1:5" ht="21" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="11"/>
       <c r="E105" s="5" t="s">
         <v>146</v>
@@ -2128,7 +2148,7 @@
     <row r="106" spans="1:5" ht="21" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="11"/>
       <c r="E106" s="5" t="s">
         <v>147</v>
@@ -2137,7 +2157,7 @@
     <row r="107" spans="1:5" ht="21" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="11"/>
       <c r="E107" s="5" t="s">
         <v>148</v>
@@ -2146,7 +2166,7 @@
     <row r="108" spans="1:5" ht="21" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="11"/>
       <c r="E108" s="5" t="s">
         <v>149</v>
@@ -2155,7 +2175,7 @@
     <row r="109" spans="1:5" ht="21" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="11"/>
       <c r="E109" s="5" t="s">
         <v>150</v>
@@ -2164,7 +2184,7 @@
     <row r="110" spans="1:5" ht="21" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="11"/>
       <c r="E110" s="5" t="s">
         <v>151</v>
@@ -2173,7 +2193,7 @@
     <row r="111" spans="1:5" ht="21" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
+      <c r="C111" s="13"/>
       <c r="D111" s="11"/>
       <c r="E111" s="5" t="s">
         <v>152</v>
@@ -2182,7 +2202,7 @@
     <row r="112" spans="1:5" ht="21" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
+      <c r="C112" s="13"/>
       <c r="D112" s="11"/>
       <c r="E112" s="5" t="s">
         <v>153</v>
@@ -2191,7 +2211,7 @@
     <row r="113" spans="1:5" ht="21" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="C113" s="13"/>
       <c r="D113" s="11" t="s">
         <v>154</v>
       </c>
@@ -2202,7 +2222,7 @@
     <row r="114" spans="1:5" ht="21" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="13"/>
       <c r="D114" s="11"/>
       <c r="E114" s="5" t="s">
         <v>156</v>
@@ -2211,7 +2231,7 @@
     <row r="115" spans="1:5" ht="21" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
@@ -2240,13 +2260,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D90"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="D94:D103"/>
-    <mergeCell ref="D104:D112"/>
     <mergeCell ref="A5:A117"/>
     <mergeCell ref="B5:B117"/>
     <mergeCell ref="C5:C115"/>
@@ -2263,6 +2276,13 @@
     <mergeCell ref="D66:D68"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D90"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D104:D112"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2271,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1"/>
@@ -2287,14 +2307,14 @@
     <col min="6" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2305,13 +2325,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>163</v>
       </c>
@@ -2321,103 +2341,114 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="D5" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="D7" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="D12" s="14"/>
+      <c r="E12" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="D15" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="14" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
       <c r="A17" s="14"/>
@@ -2425,7 +2456,7 @@
       <c r="C17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
       <c r="A18" s="14"/>
@@ -2433,7 +2464,7 @@
       <c r="C18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1">
       <c r="A19" s="14"/>
@@ -2648,7 +2679,10 @@
       <c r="D43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="A4:A43"/>
     <mergeCell ref="B5:B18"/>
     <mergeCell ref="B20:B30"/>

--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C语言学习进度" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
   <si>
     <t>颜色</t>
   </si>
@@ -524,12 +519,18 @@
     <t>第1天</t>
   </si>
   <si>
+    <t>Linux操作相关</t>
+  </si>
+  <si>
     <t>第2天</t>
   </si>
   <si>
     <t>第3天</t>
   </si>
   <si>
+    <t>Python基础语法</t>
+  </si>
+  <si>
     <t>第4天</t>
   </si>
   <si>
@@ -554,9 +555,15 @@
     <t>第11天</t>
   </si>
   <si>
+    <t>Python强化练习</t>
+  </si>
+  <si>
     <t>第12天</t>
   </si>
   <si>
+    <t>项目实战</t>
+  </si>
+  <si>
     <t>第13天</t>
   </si>
   <si>
@@ -654,33 +661,19 @@
   </si>
   <si>
     <t>人工智能+Python基础班</t>
-  </si>
-  <si>
-    <t>Linux操作相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python基础语法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python强化练习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目实战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件未看</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,13 +695,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,7 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,8 +870,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -748,13 +1065,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,33 +1344,65 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1069,19 +1660,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView topLeftCell="D64" workbookViewId="0">
       <selection activeCell="E23" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
@@ -1095,14 +1686,14 @@
     <col min="10" max="16384" width="16.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1113,49 +1704,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="87.95" customHeight="1">
+    <row r="4" ht="87.95" customHeight="1" spans="6:6">
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="32.1" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
+    <row r="6" ht="39" customHeight="1" spans="3:7">
+      <c r="C6" s="6"/>
       <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
+    <row r="7" ht="21" customHeight="1" spans="3:6">
+      <c r="C7" s="6"/>
       <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1163,11 +1748,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
+    <row r="8" ht="21" customHeight="1" spans="3:8">
+      <c r="C8" s="6"/>
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1178,11 +1760,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
+    <row r="9" ht="21" customHeight="1" spans="3:8">
+      <c r="C9" s="6"/>
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1193,11 +1772,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
+    <row r="10" ht="21" customHeight="1" spans="3:8">
+      <c r="C10" s="6"/>
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1208,11 +1784,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
+    <row r="11" ht="21" customHeight="1" spans="3:8">
+      <c r="C11" s="6"/>
       <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1223,20 +1796,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
+    <row r="12" ht="21" customHeight="1" spans="3:5">
+      <c r="C12" s="6"/>
       <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
+    <row r="13" ht="21" customHeight="1" spans="3:8">
+      <c r="C13" s="6"/>
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1247,11 +1814,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
+    <row r="14" ht="21" customHeight="1" spans="3:8">
+      <c r="C14" s="6"/>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1262,11 +1826,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
+    <row r="15" ht="21" customHeight="1" spans="3:8">
+      <c r="C15" s="6"/>
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1277,11 +1838,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
+    <row r="16" ht="21" customHeight="1" spans="3:8">
+      <c r="C16" s="6"/>
       <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
@@ -1292,11 +1850,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
+    <row r="17" ht="21" customHeight="1" spans="3:6">
+      <c r="C17" s="6"/>
       <c r="E17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1304,29 +1859,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
+    <row r="18" ht="21" customHeight="1" spans="3:5">
+      <c r="C18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
+    <row r="19" ht="21" customHeight="1" spans="3:5">
+      <c r="C19" s="6"/>
       <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11" t="s">
+    <row r="20" ht="21" customHeight="1" spans="3:8">
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1336,11 +1883,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
+    <row r="21" ht="21" customHeight="1" spans="3:8">
+      <c r="C21" s="6"/>
       <c r="E21" s="8" t="s">
         <v>46</v>
       </c>
@@ -1351,11 +1895,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
+    <row r="22" ht="21" customHeight="1" spans="3:6">
+      <c r="C22" s="6"/>
       <c r="E22" s="8" t="s">
         <v>49</v>
       </c>
@@ -1363,11 +1904,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11"/>
+    <row r="23" ht="21" customHeight="1" spans="3:6">
+      <c r="C23" s="6"/>
       <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
@@ -1375,863 +1913,605 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
+    <row r="24" ht="21" customHeight="1" spans="3:5">
+      <c r="C24" s="6"/>
       <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
+    <row r="25" ht="21" customHeight="1" spans="3:5">
+      <c r="C25" s="6"/>
       <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
+    <row r="26" ht="21" customHeight="1" spans="3:5">
+      <c r="C26" s="6"/>
       <c r="E26" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11" t="s">
+    <row r="27" ht="21" customHeight="1" spans="3:5">
+      <c r="C27" s="6"/>
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
+    <row r="28" ht="21" customHeight="1" spans="3:5">
+      <c r="C28" s="6"/>
       <c r="E28" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
+    <row r="29" ht="21" customHeight="1" spans="3:5">
+      <c r="C29" s="6"/>
       <c r="E29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11" t="s">
+    <row r="30" ht="21" customHeight="1" spans="3:5">
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="11"/>
+    <row r="31" ht="21" customHeight="1" spans="3:5">
+      <c r="C31" s="6"/>
       <c r="E31" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="11"/>
+    <row r="32" ht="21" customHeight="1" spans="3:5">
+      <c r="C32" s="6"/>
       <c r="E32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
+    <row r="33" ht="21" customHeight="1" spans="3:5">
+      <c r="C33" s="6"/>
       <c r="E33" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
+    <row r="34" ht="21" customHeight="1" spans="3:5">
+      <c r="C34" s="6"/>
       <c r="E34" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="11"/>
+    <row r="35" ht="21" customHeight="1" spans="3:5">
+      <c r="C35" s="6"/>
       <c r="E35" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="11"/>
+    <row r="36" ht="21" customHeight="1" spans="3:5">
+      <c r="C36" s="6"/>
       <c r="E36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="11"/>
+    <row r="37" ht="21" customHeight="1" spans="3:5">
+      <c r="C37" s="6"/>
       <c r="E37" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="11"/>
+    <row r="38" ht="21" customHeight="1" spans="3:5">
+      <c r="C38" s="6"/>
       <c r="E38" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="11" t="s">
+    <row r="39" ht="21" customHeight="1" spans="3:5">
+      <c r="C39" s="6"/>
+      <c r="D39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
+    <row r="40" ht="21" customHeight="1" spans="3:5">
+      <c r="C40" s="6"/>
       <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="11"/>
+    <row r="41" ht="21" customHeight="1" spans="3:5">
+      <c r="C41" s="6"/>
       <c r="E41" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
+    <row r="42" ht="21" customHeight="1" spans="3:5">
+      <c r="C42" s="6"/>
       <c r="E42" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="11" t="s">
+    <row r="43" ht="21" customHeight="1" spans="3:5">
+      <c r="C43" s="6"/>
+      <c r="D43" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="11"/>
+    <row r="44" ht="21" customHeight="1" spans="3:5">
+      <c r="C44" s="6"/>
       <c r="E44" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11"/>
+    <row r="45" ht="21" customHeight="1" spans="3:5">
+      <c r="C45" s="6"/>
       <c r="E45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="11"/>
+    <row r="46" ht="21" customHeight="1" spans="3:5">
+      <c r="C46" s="6"/>
       <c r="E46" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="11" t="s">
+    <row r="47" ht="21" customHeight="1" spans="3:5">
+      <c r="C47" s="6"/>
+      <c r="D47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11"/>
+    <row r="48" ht="21" customHeight="1" spans="3:5">
+      <c r="C48" s="6"/>
       <c r="E48" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="11"/>
+    <row r="49" ht="21" customHeight="1" spans="3:5">
+      <c r="C49" s="6"/>
       <c r="E49" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="11" t="s">
+    <row r="50" ht="21" customHeight="1" spans="3:5">
+      <c r="C50" s="6"/>
+      <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="11"/>
+    <row r="51" ht="21" customHeight="1" spans="3:5">
+      <c r="C51" s="6"/>
       <c r="E51" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="21" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="11"/>
+    <row r="52" ht="21" customHeight="1" spans="3:5">
+      <c r="C52" s="6"/>
       <c r="E52" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="21" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="11"/>
+    <row r="53" ht="21" customHeight="1" spans="3:5">
+      <c r="C53" s="6"/>
       <c r="E53" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="21" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="11" t="s">
+    <row r="54" ht="21" customHeight="1" spans="3:5">
+      <c r="C54" s="6"/>
+      <c r="D54" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="21" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="11"/>
+    <row r="55" ht="21" customHeight="1" spans="3:5">
+      <c r="C55" s="6"/>
       <c r="E55" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="21" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="11"/>
+    <row r="56" ht="21" customHeight="1" spans="3:5">
+      <c r="C56" s="6"/>
       <c r="E56" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="11"/>
+    <row r="57" ht="21" customHeight="1" spans="3:5">
+      <c r="C57" s="6"/>
       <c r="E57" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="21" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="11"/>
+    <row r="58" ht="21" customHeight="1" spans="3:5">
+      <c r="C58" s="6"/>
       <c r="E58" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="11" t="s">
+    <row r="59" ht="21" customHeight="1" spans="3:5">
+      <c r="C59" s="6"/>
+      <c r="D59" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="11"/>
+    <row r="60" ht="21" customHeight="1" spans="3:5">
+      <c r="C60" s="6"/>
       <c r="E60" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="21" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="11"/>
+    <row r="61" ht="21" customHeight="1" spans="3:5">
+      <c r="C61" s="6"/>
       <c r="E61" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="21" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="11"/>
+    <row r="62" ht="21" customHeight="1" spans="3:5">
+      <c r="C62" s="6"/>
       <c r="E62" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="11"/>
+    <row r="63" ht="21" customHeight="1" spans="3:5">
+      <c r="C63" s="6"/>
       <c r="E63" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="21" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="11"/>
+    <row r="64" ht="21" customHeight="1" spans="3:5">
+      <c r="C64" s="6"/>
       <c r="E64" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="21" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="11"/>
+    <row r="65" ht="21" customHeight="1" spans="3:5">
+      <c r="C65" s="6"/>
       <c r="E65" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="21" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="11" t="s">
+    <row r="66" ht="21" customHeight="1" spans="3:5">
+      <c r="C66" s="6"/>
+      <c r="D66" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="21" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="11"/>
+    <row r="67" ht="21" customHeight="1" spans="3:5">
+      <c r="C67" s="6"/>
       <c r="E67" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="11"/>
+    <row r="68" ht="21" customHeight="1" spans="3:5">
+      <c r="C68" s="6"/>
       <c r="E68" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="21" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="11" t="s">
+    <row r="69" ht="21" customHeight="1" spans="3:5">
+      <c r="C69" s="6"/>
+      <c r="D69" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="11"/>
+    <row r="70" ht="21" customHeight="1" spans="3:5">
+      <c r="C70" s="6"/>
       <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="11" t="s">
+    <row r="71" ht="21" customHeight="1" spans="3:5">
+      <c r="C71" s="6"/>
+      <c r="D71" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="21" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="11"/>
+    <row r="72" ht="21" customHeight="1" spans="3:5">
+      <c r="C72" s="6"/>
       <c r="E72" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="21" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="11"/>
+    <row r="73" ht="21" customHeight="1" spans="3:5">
+      <c r="C73" s="6"/>
       <c r="E73" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="21" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="11"/>
+    <row r="74" ht="21" customHeight="1" spans="3:5">
+      <c r="C74" s="6"/>
       <c r="E74" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="21" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="11"/>
+    <row r="75" ht="21" customHeight="1" spans="3:5">
+      <c r="C75" s="6"/>
       <c r="E75" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="21" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="11"/>
+    <row r="76" ht="21" customHeight="1" spans="3:5">
+      <c r="C76" s="6"/>
       <c r="E76" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="21" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="11" t="s">
+    <row r="77" ht="21" customHeight="1" spans="3:5">
+      <c r="C77" s="6"/>
+      <c r="D77" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="21" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="11"/>
+    <row r="78" ht="21" customHeight="1" spans="3:5">
+      <c r="C78" s="6"/>
       <c r="E78" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="21" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="11" t="s">
+    <row r="79" ht="21" customHeight="1" spans="3:5">
+      <c r="C79" s="6"/>
+      <c r="D79" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="21" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="11"/>
+    <row r="80" ht="21" customHeight="1" spans="3:5">
+      <c r="C80" s="6"/>
       <c r="E80" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="21" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="11"/>
+    <row r="81" ht="21" customHeight="1" spans="3:5">
+      <c r="C81" s="6"/>
       <c r="E81" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="21" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="11"/>
+    <row r="82" ht="21" customHeight="1" spans="3:5">
+      <c r="C82" s="6"/>
       <c r="E82" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="21" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="11"/>
+    <row r="83" ht="21" customHeight="1" spans="3:5">
+      <c r="C83" s="6"/>
       <c r="E83" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="11"/>
+    <row r="84" ht="21" customHeight="1" spans="3:5">
+      <c r="C84" s="6"/>
       <c r="E84" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="21" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="11"/>
+    <row r="85" ht="21" customHeight="1" spans="3:5">
+      <c r="C85" s="6"/>
       <c r="E85" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="11"/>
+    <row r="86" ht="21" customHeight="1" spans="3:5">
+      <c r="C86" s="6"/>
       <c r="E86" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="21" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="11"/>
+    <row r="87" ht="21" customHeight="1" spans="3:5">
+      <c r="C87" s="6"/>
       <c r="E87" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="21" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="11"/>
+    <row r="88" ht="21" customHeight="1" spans="3:5">
+      <c r="C88" s="6"/>
       <c r="E88" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="21" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="11"/>
+    <row r="89" ht="21" customHeight="1" spans="3:5">
+      <c r="C89" s="6"/>
       <c r="E89" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="21" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="11"/>
+    <row r="90" ht="21" customHeight="1" spans="3:5">
+      <c r="C90" s="6"/>
       <c r="E90" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="21" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="11" t="s">
+    <row r="91" ht="21" customHeight="1" spans="3:5">
+      <c r="C91" s="6"/>
+      <c r="D91" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="21" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="11"/>
+    <row r="92" ht="21" customHeight="1" spans="3:5">
+      <c r="C92" s="6"/>
       <c r="E92" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="21" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="11"/>
+    <row r="93" ht="21" customHeight="1" spans="3:5">
+      <c r="C93" s="6"/>
       <c r="E93" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="21" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="11" t="s">
+    <row r="94" ht="21" customHeight="1" spans="3:5">
+      <c r="C94" s="6"/>
+      <c r="D94" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="21" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="11"/>
+    <row r="95" ht="21" customHeight="1" spans="3:5">
+      <c r="C95" s="6"/>
       <c r="E95" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="21" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="11"/>
+    <row r="96" ht="21" customHeight="1" spans="3:5">
+      <c r="C96" s="6"/>
       <c r="E96" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="21" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="11"/>
+    <row r="97" ht="21" customHeight="1" spans="3:5">
+      <c r="C97" s="6"/>
       <c r="E97" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="21" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="11"/>
+    <row r="98" ht="21" customHeight="1" spans="3:5">
+      <c r="C98" s="6"/>
       <c r="E98" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="21" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="11"/>
+    <row r="99" ht="21" customHeight="1" spans="3:5">
+      <c r="C99" s="6"/>
       <c r="E99" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="21" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="11"/>
+    <row r="100" ht="21" customHeight="1" spans="3:5">
+      <c r="C100" s="6"/>
       <c r="E100" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="21" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="11"/>
+    <row r="101" ht="21" customHeight="1" spans="3:5">
+      <c r="C101" s="6"/>
       <c r="E101" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="21" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="11"/>
+    <row r="102" ht="21" customHeight="1" spans="3:5">
+      <c r="C102" s="6"/>
       <c r="E102" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="21" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="11"/>
+    <row r="103" ht="21" customHeight="1" spans="3:5">
+      <c r="C103" s="6"/>
       <c r="E103" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="21" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="11" t="s">
+    <row r="104" ht="21" customHeight="1" spans="3:5">
+      <c r="C104" s="6"/>
+      <c r="D104" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="21" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="11"/>
+    <row r="105" ht="21" customHeight="1" spans="3:5">
+      <c r="C105" s="6"/>
       <c r="E105" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="21" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="11"/>
+    <row r="106" ht="21" customHeight="1" spans="3:5">
+      <c r="C106" s="6"/>
       <c r="E106" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="21" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="11"/>
+    <row r="107" ht="21" customHeight="1" spans="3:5">
+      <c r="C107" s="6"/>
       <c r="E107" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="21" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="11"/>
+    <row r="108" ht="21" customHeight="1" spans="3:5">
+      <c r="C108" s="6"/>
       <c r="E108" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="21" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="11"/>
+    <row r="109" ht="21" customHeight="1" spans="3:5">
+      <c r="C109" s="6"/>
       <c r="E109" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="21" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="11"/>
+    <row r="110" ht="21" customHeight="1" spans="3:5">
+      <c r="C110" s="6"/>
       <c r="E110" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="21" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="11"/>
+    <row r="111" ht="21" customHeight="1" spans="3:5">
+      <c r="C111" s="6"/>
       <c r="E111" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="21" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="11"/>
+    <row r="112" ht="21" customHeight="1" spans="3:5">
+      <c r="C112" s="6"/>
       <c r="E112" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="21" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="11" t="s">
+    <row r="113" ht="21" customHeight="1" spans="3:5">
+      <c r="C113" s="6"/>
+      <c r="D113" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="21" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="11"/>
+    <row r="114" ht="21" customHeight="1" spans="3:5">
+      <c r="C114" s="6"/>
       <c r="E114" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="21" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="13"/>
+    <row r="115" ht="21" customHeight="1" spans="3:5">
+      <c r="C115" s="6"/>
       <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
@@ -2239,21 +2519,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="21" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
+    <row r="116" ht="21" customHeight="1" spans="3:3">
       <c r="C116" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="21" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
+    <row r="117" ht="21" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1">
+    <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="1" t="s">
         <v>161</v>
       </c>
@@ -2276,30 +2552,31 @@
     <mergeCell ref="D66:D68"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="D79:D90"/>
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="D94:D103"/>
     <mergeCell ref="D104:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.375" style="1" customWidth="1"/>
@@ -2307,14 +2584,14 @@
     <col min="6" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2325,14 +2602,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2341,356 +2618,353 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="D5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="4" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14" t="s">
-        <v>181</v>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>195</v>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="A42" s="14"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1">
-      <c r="A43" s="14"/>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="D16:D18"/>
     <mergeCell ref="A4:A43"/>
     <mergeCell ref="B5:B18"/>
     <mergeCell ref="B20:B30"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/0_C和python学习计划.xlsx
+++ b/0_C和python学习计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
   <si>
     <t>颜色</t>
   </si>
@@ -504,9 +504,6 @@
     <t>c++语言教程课件源码</t>
   </si>
   <si>
-    <t>已经拷贝回家</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
@@ -522,6 +519,10 @@
     <t>Linux操作相关</t>
   </si>
   <si>
+    <t>本部分的视频全部删除,
+看印象笔记的总结就行了</t>
+  </si>
+  <si>
     <t>第2天</t>
   </si>
   <si>
@@ -561,7 +562,7 @@
     <t>第12天</t>
   </si>
   <si>
-    <t>项目实战</t>
+    <t>项目实战(飞机游戏)</t>
   </si>
   <si>
     <t>第13天</t>
@@ -577,6 +578,9 @@
   </si>
   <si>
     <t>第1章 python基础</t>
+  </si>
+  <si>
+    <t>和"Python基础班"内容一样,删除</t>
   </si>
   <si>
     <t>第2章 python核心编程</t>
@@ -668,8 +672,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -704,53 +708,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,17 +730,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,16 +781,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,33 +819,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -860,6 +864,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,13 +882,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,156 +1056,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1066,11 +1070,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,30 +1138,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1125,17 +1158,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,8 +1209,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,165 +1249,189 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1678,7 +1768,7 @@
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.125" style="14" customWidth="1"/>
     <col min="6" max="6" width="39.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
@@ -1690,8 +1780,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1705,7 +1795,7 @@
       </c>
     </row>
     <row r="4" ht="87.95" customHeight="1" spans="6:6">
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1716,32 +1806,32 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="3:7">
-      <c r="C6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="15"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="3:6">
-      <c r="C7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="15"/>
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1749,8 +1839,8 @@
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:8">
-      <c r="C8" s="6"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1761,8 +1851,8 @@
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="3:8">
-      <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="15"/>
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1773,8 +1863,8 @@
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:8">
-      <c r="C10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1785,11 +1875,11 @@
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="3:8">
-      <c r="C11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1797,14 +1887,14 @@
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="3:5">
-      <c r="C12" s="6"/>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="3:8">
-      <c r="C13" s="6"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1815,8 +1905,8 @@
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="3:8">
-      <c r="C14" s="6"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="15"/>
+      <c r="E14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1827,8 +1917,8 @@
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="3:8">
-      <c r="C15" s="6"/>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="15"/>
+      <c r="E15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1839,8 +1929,8 @@
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="3:8">
-      <c r="C16" s="6"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="15"/>
+      <c r="E16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1851,8 +1941,8 @@
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="3:6">
-      <c r="C17" s="6"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="15"/>
+      <c r="E17" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1860,23 +1950,23 @@
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="3:5">
-      <c r="C18" s="6"/>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="15"/>
+      <c r="E18" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="3:5">
-      <c r="C19" s="6"/>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="15"/>
+      <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="3:8">
-      <c r="C20" s="6"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1884,8 +1974,8 @@
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="3:8">
-      <c r="C21" s="6"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="15"/>
+      <c r="E21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1896,8 +1986,8 @@
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="3:6">
-      <c r="C22" s="6"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="15"/>
+      <c r="E22" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1905,8 +1995,8 @@
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="3:6">
-      <c r="C23" s="6"/>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="15"/>
+      <c r="E23" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1914,608 +2004,608 @@
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="3:5">
-      <c r="C24" s="6"/>
-      <c r="E24" s="5" t="s">
+      <c r="C24" s="15"/>
+      <c r="E24" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="3:5">
-      <c r="C25" s="6"/>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="15"/>
+      <c r="E25" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="3:5">
-      <c r="C26" s="6"/>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="15"/>
+      <c r="E26" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="3:5">
-      <c r="C27" s="6"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="3:5">
-      <c r="C28" s="6"/>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="15"/>
+      <c r="E28" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="3:5">
-      <c r="C29" s="6"/>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="15"/>
+      <c r="E29" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="3:5">
-      <c r="C30" s="6"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="3:5">
-      <c r="C31" s="6"/>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="15"/>
+      <c r="E31" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="3:5">
-      <c r="C32" s="6"/>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="15"/>
+      <c r="E32" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="21" customHeight="1" spans="3:5">
-      <c r="C33" s="6"/>
-      <c r="E33" s="5" t="s">
+      <c r="C33" s="15"/>
+      <c r="E33" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" ht="21" customHeight="1" spans="3:5">
-      <c r="C34" s="6"/>
-      <c r="E34" s="5" t="s">
+      <c r="C34" s="15"/>
+      <c r="E34" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" ht="21" customHeight="1" spans="3:5">
-      <c r="C35" s="6"/>
-      <c r="E35" s="5" t="s">
+      <c r="C35" s="15"/>
+      <c r="E35" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:5">
-      <c r="C36" s="6"/>
-      <c r="E36" s="5" t="s">
+      <c r="C36" s="15"/>
+      <c r="E36" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="3:5">
-      <c r="C37" s="6"/>
-      <c r="E37" s="5" t="s">
+      <c r="C37" s="15"/>
+      <c r="E37" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" ht="21" customHeight="1" spans="3:5">
-      <c r="C38" s="6"/>
-      <c r="E38" s="5" t="s">
+      <c r="C38" s="15"/>
+      <c r="E38" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="3:5">
-      <c r="C39" s="6"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="3:5">
-      <c r="C40" s="6"/>
-      <c r="E40" s="5" t="s">
+      <c r="C40" s="15"/>
+      <c r="E40" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="3:5">
-      <c r="C41" s="6"/>
-      <c r="E41" s="5" t="s">
+      <c r="C41" s="15"/>
+      <c r="E41" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:5">
-      <c r="C42" s="6"/>
-      <c r="E42" s="5" t="s">
+      <c r="C42" s="15"/>
+      <c r="E42" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:5">
-      <c r="C43" s="6"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:5">
-      <c r="C44" s="6"/>
-      <c r="E44" s="5" t="s">
+      <c r="C44" s="15"/>
+      <c r="E44" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" spans="3:5">
-      <c r="C45" s="6"/>
-      <c r="E45" s="5" t="s">
+      <c r="C45" s="15"/>
+      <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:5">
-      <c r="C46" s="6"/>
-      <c r="E46" s="5" t="s">
+      <c r="C46" s="15"/>
+      <c r="E46" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:5">
-      <c r="C47" s="6"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:5">
-      <c r="C48" s="6"/>
-      <c r="E48" s="5" t="s">
+      <c r="C48" s="15"/>
+      <c r="E48" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:5">
-      <c r="C49" s="6"/>
-      <c r="E49" s="5" t="s">
+      <c r="C49" s="15"/>
+      <c r="E49" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="3:5">
-      <c r="C50" s="6"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="3:5">
-      <c r="C51" s="6"/>
-      <c r="E51" s="5" t="s">
+      <c r="C51" s="15"/>
+      <c r="E51" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="3:5">
-      <c r="C52" s="6"/>
-      <c r="E52" s="5" t="s">
+      <c r="C52" s="15"/>
+      <c r="E52" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="3:5">
-      <c r="C53" s="6"/>
-      <c r="E53" s="5" t="s">
+      <c r="C53" s="15"/>
+      <c r="E53" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="3:5">
-      <c r="C54" s="6"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="3:5">
-      <c r="C55" s="6"/>
-      <c r="E55" s="5" t="s">
+      <c r="C55" s="15"/>
+      <c r="E55" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="3:5">
-      <c r="C56" s="6"/>
-      <c r="E56" s="5" t="s">
+      <c r="C56" s="15"/>
+      <c r="E56" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="3:5">
-      <c r="C57" s="6"/>
-      <c r="E57" s="5" t="s">
+      <c r="C57" s="15"/>
+      <c r="E57" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="3:5">
-      <c r="C58" s="6"/>
-      <c r="E58" s="5" t="s">
+      <c r="C58" s="15"/>
+      <c r="E58" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="3:5">
-      <c r="C59" s="6"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="3:5">
-      <c r="C60" s="6"/>
-      <c r="E60" s="5" t="s">
+      <c r="C60" s="15"/>
+      <c r="E60" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="3:5">
-      <c r="C61" s="6"/>
-      <c r="E61" s="5" t="s">
+      <c r="C61" s="15"/>
+      <c r="E61" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="3:5">
-      <c r="C62" s="6"/>
-      <c r="E62" s="5" t="s">
+      <c r="C62" s="15"/>
+      <c r="E62" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="3:5">
-      <c r="C63" s="6"/>
-      <c r="E63" s="5" t="s">
+      <c r="C63" s="15"/>
+      <c r="E63" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="3:5">
-      <c r="C64" s="6"/>
-      <c r="E64" s="5" t="s">
+      <c r="C64" s="15"/>
+      <c r="E64" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="3:5">
-      <c r="C65" s="6"/>
-      <c r="E65" s="5" t="s">
+      <c r="C65" s="15"/>
+      <c r="E65" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="3:5">
-      <c r="C66" s="6"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="3:5">
-      <c r="C67" s="6"/>
-      <c r="E67" s="5" t="s">
+      <c r="C67" s="15"/>
+      <c r="E67" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="3:5">
-      <c r="C68" s="6"/>
-      <c r="E68" s="5" t="s">
+      <c r="C68" s="15"/>
+      <c r="E68" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="3:5">
-      <c r="C69" s="6"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="3:5">
-      <c r="C70" s="6"/>
-      <c r="E70" s="5" t="s">
+      <c r="C70" s="15"/>
+      <c r="E70" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="3:5">
-      <c r="C71" s="6"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:5">
-      <c r="C72" s="6"/>
-      <c r="E72" s="5" t="s">
+      <c r="C72" s="15"/>
+      <c r="E72" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="3:5">
-      <c r="C73" s="6"/>
-      <c r="E73" s="5" t="s">
+      <c r="C73" s="15"/>
+      <c r="E73" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="3:5">
-      <c r="C74" s="6"/>
-      <c r="E74" s="5" t="s">
+      <c r="C74" s="15"/>
+      <c r="E74" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="3:5">
-      <c r="C75" s="6"/>
-      <c r="E75" s="5" t="s">
+      <c r="C75" s="15"/>
+      <c r="E75" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="3:5">
-      <c r="C76" s="6"/>
-      <c r="E76" s="5" t="s">
+      <c r="C76" s="15"/>
+      <c r="E76" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="3:5">
-      <c r="C77" s="6"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" ht="21" customHeight="1" spans="3:5">
-      <c r="C78" s="6"/>
-      <c r="E78" s="5" t="s">
+      <c r="C78" s="15"/>
+      <c r="E78" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" ht="21" customHeight="1" spans="3:5">
-      <c r="C79" s="6"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="80" ht="21" customHeight="1" spans="3:5">
-      <c r="C80" s="6"/>
-      <c r="E80" s="5" t="s">
+      <c r="C80" s="15"/>
+      <c r="E80" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="81" ht="21" customHeight="1" spans="3:5">
-      <c r="C81" s="6"/>
-      <c r="E81" s="5" t="s">
+      <c r="C81" s="15"/>
+      <c r="E81" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" spans="3:5">
-      <c r="C82" s="6"/>
-      <c r="E82" s="5" t="s">
+      <c r="C82" s="15"/>
+      <c r="E82" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" ht="21" customHeight="1" spans="3:5">
-      <c r="C83" s="6"/>
-      <c r="E83" s="5" t="s">
+      <c r="C83" s="15"/>
+      <c r="E83" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="84" ht="21" customHeight="1" spans="3:5">
-      <c r="C84" s="6"/>
-      <c r="E84" s="5" t="s">
+      <c r="C84" s="15"/>
+      <c r="E84" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="85" ht="21" customHeight="1" spans="3:5">
-      <c r="C85" s="6"/>
-      <c r="E85" s="5" t="s">
+      <c r="C85" s="15"/>
+      <c r="E85" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="86" ht="21" customHeight="1" spans="3:5">
-      <c r="C86" s="6"/>
-      <c r="E86" s="5" t="s">
+      <c r="C86" s="15"/>
+      <c r="E86" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" ht="21" customHeight="1" spans="3:5">
-      <c r="C87" s="6"/>
-      <c r="E87" s="5" t="s">
+      <c r="C87" s="15"/>
+      <c r="E87" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="88" ht="21" customHeight="1" spans="3:5">
-      <c r="C88" s="6"/>
-      <c r="E88" s="5" t="s">
+      <c r="C88" s="15"/>
+      <c r="E88" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="89" ht="21" customHeight="1" spans="3:5">
-      <c r="C89" s="6"/>
-      <c r="E89" s="5" t="s">
+      <c r="C89" s="15"/>
+      <c r="E89" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" ht="21" customHeight="1" spans="3:5">
-      <c r="C90" s="6"/>
-      <c r="E90" s="5" t="s">
+      <c r="C90" s="15"/>
+      <c r="E90" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" ht="21" customHeight="1" spans="3:5">
-      <c r="C91" s="6"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="92" ht="21" customHeight="1" spans="3:5">
-      <c r="C92" s="6"/>
-      <c r="E92" s="5" t="s">
+      <c r="C92" s="15"/>
+      <c r="E92" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:5">
-      <c r="C93" s="6"/>
-      <c r="E93" s="5" t="s">
+      <c r="C93" s="15"/>
+      <c r="E93" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:5">
-      <c r="C94" s="6"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:5">
-      <c r="C95" s="6"/>
-      <c r="E95" s="5" t="s">
+      <c r="C95" s="15"/>
+      <c r="E95" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:5">
-      <c r="C96" s="6"/>
-      <c r="E96" s="5" t="s">
+      <c r="C96" s="15"/>
+      <c r="E96" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:5">
-      <c r="C97" s="6"/>
-      <c r="E97" s="5" t="s">
+      <c r="C97" s="15"/>
+      <c r="E97" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" ht="21" customHeight="1" spans="3:5">
-      <c r="C98" s="6"/>
-      <c r="E98" s="5" t="s">
+      <c r="C98" s="15"/>
+      <c r="E98" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="99" ht="21" customHeight="1" spans="3:5">
-      <c r="C99" s="6"/>
-      <c r="E99" s="5" t="s">
+      <c r="C99" s="15"/>
+      <c r="E99" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="100" ht="21" customHeight="1" spans="3:5">
-      <c r="C100" s="6"/>
-      <c r="E100" s="5" t="s">
+      <c r="C100" s="15"/>
+      <c r="E100" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="101" ht="21" customHeight="1" spans="3:5">
-      <c r="C101" s="6"/>
-      <c r="E101" s="5" t="s">
+      <c r="C101" s="15"/>
+      <c r="E101" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="102" ht="21" customHeight="1" spans="3:5">
-      <c r="C102" s="6"/>
-      <c r="E102" s="5" t="s">
+      <c r="C102" s="15"/>
+      <c r="E102" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103" ht="21" customHeight="1" spans="3:5">
-      <c r="C103" s="6"/>
-      <c r="E103" s="5" t="s">
+      <c r="C103" s="15"/>
+      <c r="E103" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="104" ht="21" customHeight="1" spans="3:5">
-      <c r="C104" s="6"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105" ht="21" customHeight="1" spans="3:5">
-      <c r="C105" s="6"/>
-      <c r="E105" s="5" t="s">
+      <c r="C105" s="15"/>
+      <c r="E105" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="3:5">
-      <c r="C106" s="6"/>
-      <c r="E106" s="5" t="s">
+      <c r="C106" s="15"/>
+      <c r="E106" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107" ht="21" customHeight="1" spans="3:5">
-      <c r="C107" s="6"/>
-      <c r="E107" s="5" t="s">
+      <c r="C107" s="15"/>
+      <c r="E107" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108" ht="21" customHeight="1" spans="3:5">
-      <c r="C108" s="6"/>
-      <c r="E108" s="5" t="s">
+      <c r="C108" s="15"/>
+      <c r="E108" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109" ht="21" customHeight="1" spans="3:5">
-      <c r="C109" s="6"/>
-      <c r="E109" s="5" t="s">
+      <c r="C109" s="15"/>
+      <c r="E109" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110" ht="21" customHeight="1" spans="3:5">
-      <c r="C110" s="6"/>
-      <c r="E110" s="5" t="s">
+      <c r="C110" s="15"/>
+      <c r="E110" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111" ht="21" customHeight="1" spans="3:5">
-      <c r="C111" s="6"/>
-      <c r="E111" s="5" t="s">
+      <c r="C111" s="15"/>
+      <c r="E111" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112" ht="21" customHeight="1" spans="3:5">
-      <c r="C112" s="6"/>
-      <c r="E112" s="5" t="s">
+      <c r="C112" s="15"/>
+      <c r="E112" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113" ht="21" customHeight="1" spans="3:5">
-      <c r="C113" s="6"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114" ht="21" customHeight="1" spans="3:5">
-      <c r="C114" s="6"/>
-      <c r="E114" s="5" t="s">
+      <c r="C114" s="15"/>
+      <c r="E114" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115" ht="21" customHeight="1" spans="3:5">
-      <c r="C115" s="6"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2568,13 +2658,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
@@ -2584,376 +2674,384 @@
     <col min="6" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="D24" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="4"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="D31" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>201</v>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>202</v>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>203</v>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="D35" s="10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>206</v>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>207</v>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>208</v>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="4"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>212</v>
       </c>
+      <c r="D41" s="10" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A4:A43"/>
     <mergeCell ref="B5:B18"/>
     <mergeCell ref="B20:B30"/>
@@ -2963,6 +3061,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E5:E18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
